--- a/data/processed/entfernte_kaufpreissammlung.xlsx
+++ b/data/processed/entfernte_kaufpreissammlung.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU259"/>
+  <dimension ref="A1:AU175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17072,16 +17072,20 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Josefstadt</t>
+          <t>Leopoldau</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>1080</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr"/>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Adolf-Loos-Gasse</t>
+        </is>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -17090,7 +17094,9 @@
           <t>Kaufvertrag</t>
         </is>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" s="2" t="n">
+        <v>75314</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
@@ -17105,7 +17111,7 @@
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr">
         <is>
-          <t>in Arbeit</t>
+          <t>Ein-, Zweifamilienhaus</t>
         </is>
       </c>
       <c r="V156" t="inlineStr"/>
@@ -17116,7 +17122,9 @@
       <c r="AA156" t="inlineStr"/>
       <c r="AB156" t="inlineStr"/>
       <c r="AC156" t="inlineStr"/>
-      <c r="AD156" t="inlineStr"/>
+      <c r="AD156" t="n">
+        <v>260000</v>
+      </c>
       <c r="AE156" t="inlineStr"/>
       <c r="AF156" t="inlineStr"/>
       <c r="AG156" t="inlineStr"/>
@@ -17139,13 +17147,13 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Oberlaa Land</t>
+          <t>Josefstadt</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="E157" t="inlineStr"/>
@@ -17273,13 +17281,13 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Inzersdorf Stadt</t>
+          <t>Oberlaa Land</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1100</t>
         </is>
       </c>
       <c r="E159" t="inlineStr"/>
@@ -17340,13 +17348,13 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Alsergrund</t>
+          <t>Inzersdorf Stadt</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="E160" t="inlineStr"/>
@@ -17407,13 +17415,13 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Rudolfsheim</t>
+          <t>Alsergrund</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
@@ -17474,13 +17482,13 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Speising</t>
+          <t>Rudolfsheim</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="E162" t="inlineStr"/>
@@ -17541,13 +17549,13 @@
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Simmering</t>
+          <t>Speising</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
@@ -17608,20 +17616,16 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hütteldorf</t>
+          <t>Simmering</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr">
         <is>
-          <t>1140</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Kometengasse</t>
-        </is>
-      </c>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
@@ -17679,16 +17683,20 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Margarethen</t>
+          <t>Alsergrund</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
+          <t>1090</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Kolingasse</t>
+        </is>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
@@ -17697,7 +17705,11 @@
           <t>Kaufvertrag</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>20.12.219</t>
+        </is>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
@@ -17712,7 +17724,7 @@
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr">
         <is>
-          <t>in Arbeit</t>
+          <t>Büro- u./o. Geschäftsgebäude</t>
         </is>
       </c>
       <c r="V165" t="inlineStr"/>
@@ -17723,7 +17735,9 @@
       <c r="AA165" t="inlineStr"/>
       <c r="AB165" t="inlineStr"/>
       <c r="AC165" t="inlineStr"/>
-      <c r="AD165" t="inlineStr"/>
+      <c r="AD165" t="n">
+        <v>79250000</v>
+      </c>
       <c r="AE165" t="inlineStr"/>
       <c r="AF165" t="inlineStr"/>
       <c r="AG165" t="inlineStr"/>
@@ -17746,16 +17760,20 @@
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Fünfhaus</t>
+          <t>Hütteldorf</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr">
         <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr"/>
+          <t>1140</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Kometengasse</t>
+        </is>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
@@ -17813,13 +17831,13 @@
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Inzersdorf Stadt</t>
+          <t>Margarethen</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -17880,20 +17898,16 @@
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Margarethen</t>
+          <t>Fünfhaus</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr">
         <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Grohsgasse</t>
-        </is>
-      </c>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
@@ -17951,13 +17965,13 @@
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Stammersdorf</t>
+          <t>Inzersdorf Stadt</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="E169" t="inlineStr"/>
@@ -18018,16 +18032,20 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Kagran</t>
+          <t>Margarethen</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
+          <t>1050</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Grohsgasse</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
@@ -18085,26 +18103,22 @@
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Hadersdorf</t>
+          <t>Stammersdorf</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>1140</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>Karl-Bekehrty-Straße</t>
-        </is>
-      </c>
+          <t>1210</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Baurechtsvertrag</t>
+          <t>Kaufvertrag</t>
         </is>
       </c>
       <c r="J171" t="inlineStr"/>
@@ -18122,7 +18136,7 @@
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="inlineStr">
         <is>
-          <t>unbebaut</t>
+          <t>in Arbeit</t>
         </is>
       </c>
       <c r="V171" t="inlineStr"/>
@@ -18134,9 +18148,7 @@
       <c r="AB171" t="inlineStr"/>
       <c r="AC171" t="inlineStr"/>
       <c r="AD171" t="inlineStr"/>
-      <c r="AE171" t="n">
-        <v>27.77778</v>
-      </c>
+      <c r="AE171" t="inlineStr"/>
       <c r="AF171" t="inlineStr"/>
       <c r="AG171" t="inlineStr"/>
       <c r="AH171" t="inlineStr"/>
@@ -18158,20 +18170,16 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Ottakring</t>
+          <t>Kagran</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>1160</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>Haymerlegasse</t>
-        </is>
-      </c>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
@@ -18195,7 +18203,7 @@
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="inlineStr">
         <is>
-          <t>Betriebsobjekt</t>
+          <t>in Arbeit</t>
         </is>
       </c>
       <c r="V172" t="inlineStr"/>
@@ -18206,12 +18214,8 @@
       <c r="AA172" t="inlineStr"/>
       <c r="AB172" t="inlineStr"/>
       <c r="AC172" t="inlineStr"/>
-      <c r="AD172" t="n">
-        <v>197376</v>
-      </c>
-      <c r="AE172" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
       <c r="AF172" t="inlineStr"/>
       <c r="AG172" t="inlineStr"/>
       <c r="AH172" t="inlineStr"/>
@@ -18233,18 +18237,18 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Margarethen</t>
+          <t>Landstraße</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Grüngasse</t>
+          <t>Klimschgasse</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -18255,7 +18259,11 @@
           <t>Kaufvertrag</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>09.12.202</t>
+        </is>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
@@ -18282,11 +18290,9 @@
       <c r="AB173" t="inlineStr"/>
       <c r="AC173" t="inlineStr"/>
       <c r="AD173" t="n">
-        <v>327027.8</v>
-      </c>
-      <c r="AE173" t="n">
-        <v>0</v>
-      </c>
+        <v>3770000</v>
+      </c>
+      <c r="AE173" t="inlineStr"/>
       <c r="AF173" t="inlineStr"/>
       <c r="AG173" t="inlineStr"/>
       <c r="AH173" t="inlineStr"/>
@@ -18308,18 +18314,18 @@
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ottakring</t>
+          <t>Hadersdorf</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1160</t>
+          <t>1140</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Redtenbachergasse</t>
+          <t>Karl-Bekehrty-Straße</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -18327,7 +18333,7 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Kaufvertrag</t>
+          <t>Baurechtsvertrag</t>
         </is>
       </c>
       <c r="J174" t="inlineStr"/>
@@ -18345,7 +18351,7 @@
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="inlineStr">
         <is>
-          <t>Mietwohnhaus voll/tw. vermietet</t>
+          <t>unbebaut</t>
         </is>
       </c>
       <c r="V174" t="inlineStr"/>
@@ -18356,11 +18362,9 @@
       <c r="AA174" t="inlineStr"/>
       <c r="AB174" t="inlineStr"/>
       <c r="AC174" t="inlineStr"/>
-      <c r="AD174" t="n">
-        <v>254354.9</v>
-      </c>
+      <c r="AD174" t="inlineStr"/>
       <c r="AE174" t="n">
-        <v>0</v>
+        <v>27.77778</v>
       </c>
       <c r="AF174" t="inlineStr"/>
       <c r="AG174" t="inlineStr"/>
@@ -18383,7 +18387,7 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Breitenlee</t>
+          <t>Hirschstetten</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -18394,7 +18398,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Pawlikgasse</t>
+          <t>Arnikaweg</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -18402,10 +18406,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr"/>
+          <t>Kaufvertrag</t>
+        </is>
+      </c>
+      <c r="J175" s="2" t="n">
+        <v>73989</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="inlineStr"/>
@@ -18420,7 +18426,7 @@
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="inlineStr">
         <is>
-          <t>Ein-, Zweifamilienhaus</t>
+          <t>Abbruchobjekt</t>
         </is>
       </c>
       <c r="V175" t="inlineStr"/>
@@ -18432,10 +18438,10 @@
       <c r="AB175" t="inlineStr"/>
       <c r="AC175" t="inlineStr"/>
       <c r="AD175" t="n">
-        <v>101742</v>
+        <v>810000</v>
       </c>
       <c r="AE175" t="n">
-        <v>0</v>
+        <v>1153.846</v>
       </c>
       <c r="AF175" t="inlineStr"/>
       <c r="AG175" t="inlineStr"/>
@@ -18454,5994 +18460,6 @@
       <c r="AT175" t="inlineStr"/>
       <c r="AU175" t="inlineStr"/>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr"/>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Hütteldorf</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>1140</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Minorgasse</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr"/>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="b">
-        <v>0</v>
-      </c>
-      <c r="T176" t="inlineStr"/>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V176" t="inlineStr"/>
-      <c r="W176" t="inlineStr"/>
-      <c r="X176" t="inlineStr"/>
-      <c r="Y176" t="inlineStr"/>
-      <c r="Z176" t="inlineStr"/>
-      <c r="AA176" t="inlineStr"/>
-      <c r="AB176" t="inlineStr"/>
-      <c r="AC176" t="inlineStr"/>
-      <c r="AD176" t="n">
-        <v>726.7283</v>
-      </c>
-      <c r="AE176" t="n">
-        <v>27.97904</v>
-      </c>
-      <c r="AF176" t="inlineStr"/>
-      <c r="AG176" t="inlineStr"/>
-      <c r="AH176" t="inlineStr"/>
-      <c r="AI176" t="inlineStr"/>
-      <c r="AJ176" t="inlineStr"/>
-      <c r="AK176" t="inlineStr"/>
-      <c r="AL176" t="inlineStr"/>
-      <c r="AM176" t="inlineStr"/>
-      <c r="AN176" t="inlineStr"/>
-      <c r="AO176" t="inlineStr"/>
-      <c r="AP176" t="inlineStr"/>
-      <c r="AQ176" t="inlineStr"/>
-      <c r="AR176" t="inlineStr"/>
-      <c r="AS176" t="inlineStr"/>
-      <c r="AT176" t="inlineStr"/>
-      <c r="AU176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr"/>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Kagran</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>Zwerchäckerweg</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="b">
-        <v>0</v>
-      </c>
-      <c r="T177" t="inlineStr"/>
-      <c r="U177" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V177" t="inlineStr"/>
-      <c r="W177" t="inlineStr"/>
-      <c r="X177" t="inlineStr"/>
-      <c r="Y177" t="inlineStr"/>
-      <c r="Z177" t="inlineStr"/>
-      <c r="AA177" t="inlineStr"/>
-      <c r="AB177" t="inlineStr"/>
-      <c r="AC177" t="inlineStr"/>
-      <c r="AD177" t="n">
-        <v>5036.228</v>
-      </c>
-      <c r="AE177" t="n">
-        <v>25.43549</v>
-      </c>
-      <c r="AF177" t="inlineStr"/>
-      <c r="AG177" t="inlineStr"/>
-      <c r="AH177" t="inlineStr"/>
-      <c r="AI177" t="inlineStr"/>
-      <c r="AJ177" t="inlineStr"/>
-      <c r="AK177" t="inlineStr"/>
-      <c r="AL177" t="inlineStr"/>
-      <c r="AM177" t="inlineStr"/>
-      <c r="AN177" t="inlineStr"/>
-      <c r="AO177" t="inlineStr"/>
-      <c r="AP177" t="inlineStr"/>
-      <c r="AQ177" t="inlineStr"/>
-      <c r="AR177" t="inlineStr"/>
-      <c r="AS177" t="inlineStr"/>
-      <c r="AT177" t="inlineStr"/>
-      <c r="AU177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr"/>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Leopoldstadt</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>1020</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>Hollandstraße</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>Sonstiges</t>
-        </is>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr"/>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="b">
-        <v>0</v>
-      </c>
-      <c r="T178" t="inlineStr"/>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>Sonstiges</t>
-        </is>
-      </c>
-      <c r="V178" t="inlineStr"/>
-      <c r="W178" t="inlineStr"/>
-      <c r="X178" t="inlineStr"/>
-      <c r="Y178" t="inlineStr"/>
-      <c r="Z178" t="inlineStr"/>
-      <c r="AA178" t="inlineStr"/>
-      <c r="AB178" t="inlineStr"/>
-      <c r="AC178" t="inlineStr"/>
-      <c r="AD178" t="n">
-        <v>6095591</v>
-      </c>
-      <c r="AE178" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF178" t="inlineStr"/>
-      <c r="AG178" t="inlineStr"/>
-      <c r="AH178" t="inlineStr"/>
-      <c r="AI178" t="inlineStr"/>
-      <c r="AJ178" t="inlineStr"/>
-      <c r="AK178" t="inlineStr"/>
-      <c r="AL178" t="inlineStr"/>
-      <c r="AM178" t="inlineStr"/>
-      <c r="AN178" t="inlineStr"/>
-      <c r="AO178" t="inlineStr"/>
-      <c r="AP178" t="inlineStr"/>
-      <c r="AQ178" t="inlineStr"/>
-      <c r="AR178" t="inlineStr"/>
-      <c r="AS178" t="inlineStr"/>
-      <c r="AT178" t="inlineStr"/>
-      <c r="AU178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr"/>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Leopoldstadt</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>1020</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>Große Schiffgasse</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>Sonstiges</t>
-        </is>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="b">
-        <v>0</v>
-      </c>
-      <c r="T179" t="inlineStr"/>
-      <c r="U179" t="inlineStr">
-        <is>
-          <t>Mietwohnhaus voll/tw. vermietet</t>
-        </is>
-      </c>
-      <c r="V179" t="inlineStr"/>
-      <c r="W179" t="inlineStr"/>
-      <c r="X179" t="inlineStr"/>
-      <c r="Y179" t="inlineStr"/>
-      <c r="Z179" t="inlineStr"/>
-      <c r="AA179" t="inlineStr"/>
-      <c r="AB179" t="inlineStr"/>
-      <c r="AC179" t="inlineStr"/>
-      <c r="AD179" t="n">
-        <v>232553.1</v>
-      </c>
-      <c r="AE179" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF179" t="inlineStr"/>
-      <c r="AG179" t="inlineStr"/>
-      <c r="AH179" t="inlineStr"/>
-      <c r="AI179" t="inlineStr"/>
-      <c r="AJ179" t="inlineStr"/>
-      <c r="AK179" t="inlineStr"/>
-      <c r="AL179" t="inlineStr"/>
-      <c r="AM179" t="inlineStr"/>
-      <c r="AN179" t="inlineStr"/>
-      <c r="AO179" t="inlineStr"/>
-      <c r="AP179" t="inlineStr"/>
-      <c r="AQ179" t="inlineStr"/>
-      <c r="AR179" t="inlineStr"/>
-      <c r="AS179" t="inlineStr"/>
-      <c r="AT179" t="inlineStr"/>
-      <c r="AU179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr"/>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Hirschstetten</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>Ziegelhof</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>Sonstiges</t>
-        </is>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="b">
-        <v>0</v>
-      </c>
-      <c r="T180" t="inlineStr"/>
-      <c r="U180" t="inlineStr">
-        <is>
-          <t>Abbruchobjekt</t>
-        </is>
-      </c>
-      <c r="V180" t="inlineStr"/>
-      <c r="W180" t="inlineStr"/>
-      <c r="X180" t="inlineStr"/>
-      <c r="Y180" t="inlineStr"/>
-      <c r="Z180" t="inlineStr"/>
-      <c r="AA180" t="inlineStr"/>
-      <c r="AB180" t="inlineStr"/>
-      <c r="AC180" t="inlineStr"/>
-      <c r="AD180" t="n">
-        <v>7439.082</v>
-      </c>
-      <c r="AE180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF180" t="inlineStr"/>
-      <c r="AG180" t="inlineStr"/>
-      <c r="AH180" t="inlineStr"/>
-      <c r="AI180" t="inlineStr"/>
-      <c r="AJ180" t="inlineStr"/>
-      <c r="AK180" t="inlineStr"/>
-      <c r="AL180" t="inlineStr"/>
-      <c r="AM180" t="inlineStr"/>
-      <c r="AN180" t="inlineStr"/>
-      <c r="AO180" t="inlineStr"/>
-      <c r="AP180" t="inlineStr"/>
-      <c r="AQ180" t="inlineStr"/>
-      <c r="AR180" t="inlineStr"/>
-      <c r="AS180" t="inlineStr"/>
-      <c r="AT180" t="inlineStr"/>
-      <c r="AU180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr"/>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Gersthof</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>1180</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>Thimiggasse</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr"/>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="b">
-        <v>0</v>
-      </c>
-      <c r="T181" t="inlineStr"/>
-      <c r="U181" t="inlineStr">
-        <is>
-          <t>Mietwohnhaus voll/tw. vermietet</t>
-        </is>
-      </c>
-      <c r="V181" t="inlineStr"/>
-      <c r="W181" t="inlineStr"/>
-      <c r="X181" t="inlineStr"/>
-      <c r="Y181" t="inlineStr"/>
-      <c r="Z181" t="inlineStr"/>
-      <c r="AA181" t="inlineStr"/>
-      <c r="AB181" t="inlineStr"/>
-      <c r="AC181" t="inlineStr"/>
-      <c r="AD181" t="n">
-        <v>247087.6</v>
-      </c>
-      <c r="AE181" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF181" t="inlineStr"/>
-      <c r="AG181" t="inlineStr"/>
-      <c r="AH181" t="inlineStr"/>
-      <c r="AI181" t="inlineStr"/>
-      <c r="AJ181" t="inlineStr"/>
-      <c r="AK181" t="inlineStr"/>
-      <c r="AL181" t="inlineStr"/>
-      <c r="AM181" t="inlineStr"/>
-      <c r="AN181" t="inlineStr"/>
-      <c r="AO181" t="inlineStr"/>
-      <c r="AP181" t="inlineStr"/>
-      <c r="AQ181" t="inlineStr"/>
-      <c r="AR181" t="inlineStr"/>
-      <c r="AS181" t="inlineStr"/>
-      <c r="AT181" t="inlineStr"/>
-      <c r="AU181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr"/>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Mauer</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>Kaserngasse</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>Enteig. /Einl.</t>
-        </is>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="b">
-        <v>0</v>
-      </c>
-      <c r="T182" t="inlineStr"/>
-      <c r="U182" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V182" t="inlineStr"/>
-      <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
-      <c r="Y182" t="inlineStr"/>
-      <c r="Z182" t="inlineStr"/>
-      <c r="AA182" t="inlineStr"/>
-      <c r="AB182" t="inlineStr"/>
-      <c r="AC182" t="inlineStr"/>
-      <c r="AD182" t="n">
-        <v>43930.73</v>
-      </c>
-      <c r="AE182" t="n">
-        <v>472.3734</v>
-      </c>
-      <c r="AF182" t="inlineStr"/>
-      <c r="AG182" t="inlineStr"/>
-      <c r="AH182" t="inlineStr"/>
-      <c r="AI182" t="inlineStr"/>
-      <c r="AJ182" t="inlineStr"/>
-      <c r="AK182" t="inlineStr"/>
-      <c r="AL182" t="inlineStr"/>
-      <c r="AM182" t="inlineStr"/>
-      <c r="AN182" t="inlineStr"/>
-      <c r="AO182" t="inlineStr"/>
-      <c r="AP182" t="inlineStr"/>
-      <c r="AQ182" t="inlineStr"/>
-      <c r="AR182" t="inlineStr"/>
-      <c r="AS182" t="inlineStr"/>
-      <c r="AT182" t="inlineStr"/>
-      <c r="AU182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr"/>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Breitenlee</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>Lackenjöchelgasse</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="b">
-        <v>0</v>
-      </c>
-      <c r="T183" t="inlineStr"/>
-      <c r="U183" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V183" t="inlineStr"/>
-      <c r="W183" t="inlineStr"/>
-      <c r="X183" t="inlineStr"/>
-      <c r="Y183" t="inlineStr"/>
-      <c r="Z183" t="inlineStr"/>
-      <c r="AA183" t="inlineStr"/>
-      <c r="AB183" t="inlineStr"/>
-      <c r="AC183" t="inlineStr"/>
-      <c r="AD183" t="n">
-        <v>66677.33</v>
-      </c>
-      <c r="AE183" t="n">
-        <v>181.6821</v>
-      </c>
-      <c r="AF183" t="inlineStr"/>
-      <c r="AG183" t="inlineStr"/>
-      <c r="AH183" t="inlineStr"/>
-      <c r="AI183" t="inlineStr"/>
-      <c r="AJ183" t="inlineStr"/>
-      <c r="AK183" t="inlineStr"/>
-      <c r="AL183" t="inlineStr"/>
-      <c r="AM183" t="inlineStr"/>
-      <c r="AN183" t="inlineStr"/>
-      <c r="AO183" t="inlineStr"/>
-      <c r="AP183" t="inlineStr"/>
-      <c r="AQ183" t="inlineStr"/>
-      <c r="AR183" t="inlineStr"/>
-      <c r="AS183" t="inlineStr"/>
-      <c r="AT183" t="inlineStr"/>
-      <c r="AU183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Favoriten</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>Hofherrgasse</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="b">
-        <v>0</v>
-      </c>
-      <c r="T184" t="inlineStr"/>
-      <c r="U184" t="inlineStr">
-        <is>
-          <t>Mietwohnhaus voll/tw. vermietet</t>
-        </is>
-      </c>
-      <c r="V184" t="inlineStr"/>
-      <c r="W184" t="inlineStr"/>
-      <c r="X184" t="inlineStr"/>
-      <c r="Y184" t="inlineStr"/>
-      <c r="Z184" t="inlineStr"/>
-      <c r="AA184" t="inlineStr"/>
-      <c r="AB184" t="inlineStr"/>
-      <c r="AC184" t="inlineStr"/>
-      <c r="AD184" t="n">
-        <v>578766.4</v>
-      </c>
-      <c r="AE184" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF184" t="inlineStr"/>
-      <c r="AG184" t="inlineStr"/>
-      <c r="AH184" t="inlineStr"/>
-      <c r="AI184" t="inlineStr"/>
-      <c r="AJ184" t="inlineStr"/>
-      <c r="AK184" t="inlineStr"/>
-      <c r="AL184" t="inlineStr"/>
-      <c r="AM184" t="inlineStr"/>
-      <c r="AN184" t="inlineStr"/>
-      <c r="AO184" t="inlineStr"/>
-      <c r="AP184" t="inlineStr"/>
-      <c r="AQ184" t="inlineStr"/>
-      <c r="AR184" t="inlineStr"/>
-      <c r="AS184" t="inlineStr"/>
-      <c r="AT184" t="inlineStr"/>
-      <c r="AU184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Mauer</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>Karl-Schwed-Gasse</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="b">
-        <v>0</v>
-      </c>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V185" t="inlineStr"/>
-      <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
-      <c r="Y185" t="inlineStr"/>
-      <c r="Z185" t="inlineStr"/>
-      <c r="AA185" t="inlineStr"/>
-      <c r="AB185" t="inlineStr"/>
-      <c r="AC185" t="inlineStr"/>
-      <c r="AD185" t="n">
-        <v>290691.3</v>
-      </c>
-      <c r="AE185" t="n">
-        <v>397.3024</v>
-      </c>
-      <c r="AF185" t="inlineStr"/>
-      <c r="AG185" t="inlineStr"/>
-      <c r="AH185" t="inlineStr"/>
-      <c r="AI185" t="inlineStr"/>
-      <c r="AJ185" t="inlineStr"/>
-      <c r="AK185" t="inlineStr"/>
-      <c r="AL185" t="inlineStr"/>
-      <c r="AM185" t="inlineStr"/>
-      <c r="AN185" t="inlineStr"/>
-      <c r="AO185" t="inlineStr"/>
-      <c r="AP185" t="inlineStr"/>
-      <c r="AQ185" t="inlineStr"/>
-      <c r="AR185" t="inlineStr"/>
-      <c r="AS185" t="inlineStr"/>
-      <c r="AT185" t="inlineStr"/>
-      <c r="AU185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Stadlau</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Gemeindeaugasse</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="b">
-        <v>0</v>
-      </c>
-      <c r="T186" t="inlineStr"/>
-      <c r="U186" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V186" t="inlineStr"/>
-      <c r="W186" t="inlineStr"/>
-      <c r="X186" t="inlineStr"/>
-      <c r="Y186" t="inlineStr"/>
-      <c r="Z186" t="inlineStr"/>
-      <c r="AA186" t="inlineStr"/>
-      <c r="AB186" t="inlineStr"/>
-      <c r="AC186" t="inlineStr"/>
-      <c r="AD186" t="n">
-        <v>726728.3</v>
-      </c>
-      <c r="AE186" t="n">
-        <v>458.4929</v>
-      </c>
-      <c r="AF186" t="inlineStr"/>
-      <c r="AG186" t="inlineStr"/>
-      <c r="AH186" t="inlineStr"/>
-      <c r="AI186" t="inlineStr"/>
-      <c r="AJ186" t="inlineStr"/>
-      <c r="AK186" t="inlineStr"/>
-      <c r="AL186" t="inlineStr"/>
-      <c r="AM186" t="inlineStr"/>
-      <c r="AN186" t="inlineStr"/>
-      <c r="AO186" t="inlineStr"/>
-      <c r="AP186" t="inlineStr"/>
-      <c r="AQ186" t="inlineStr"/>
-      <c r="AR186" t="inlineStr"/>
-      <c r="AS186" t="inlineStr"/>
-      <c r="AT186" t="inlineStr"/>
-      <c r="AU186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr"/>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Auhof</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>Hermesstraße</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="b">
-        <v>0</v>
-      </c>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V187" t="inlineStr"/>
-      <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr"/>
-      <c r="Z187" t="inlineStr"/>
-      <c r="AA187" t="inlineStr"/>
-      <c r="AB187" t="inlineStr"/>
-      <c r="AC187" t="inlineStr"/>
-      <c r="AD187" t="n">
-        <v>225285.8</v>
-      </c>
-      <c r="AE187" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF187" t="inlineStr"/>
-      <c r="AG187" t="inlineStr"/>
-      <c r="AH187" t="inlineStr"/>
-      <c r="AI187" t="inlineStr"/>
-      <c r="AJ187" t="inlineStr"/>
-      <c r="AK187" t="inlineStr"/>
-      <c r="AL187" t="inlineStr"/>
-      <c r="AM187" t="inlineStr"/>
-      <c r="AN187" t="inlineStr"/>
-      <c r="AO187" t="inlineStr"/>
-      <c r="AP187" t="inlineStr"/>
-      <c r="AQ187" t="inlineStr"/>
-      <c r="AR187" t="inlineStr"/>
-      <c r="AS187" t="inlineStr"/>
-      <c r="AT187" t="inlineStr"/>
-      <c r="AU187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr"/>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Hirschstetten</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>Emichgasse</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>GR Beschluss</t>
-        </is>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="b">
-        <v>0</v>
-      </c>
-      <c r="T188" t="inlineStr"/>
-      <c r="U188" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V188" t="inlineStr"/>
-      <c r="W188" t="inlineStr"/>
-      <c r="X188" t="inlineStr"/>
-      <c r="Y188" t="inlineStr"/>
-      <c r="Z188" t="inlineStr"/>
-      <c r="AA188" t="inlineStr"/>
-      <c r="AB188" t="inlineStr"/>
-      <c r="AC188" t="inlineStr"/>
-      <c r="AD188" t="n">
-        <v>338364.7</v>
-      </c>
-      <c r="AE188" t="n">
-        <v>218.0185</v>
-      </c>
-      <c r="AF188" t="inlineStr"/>
-      <c r="AG188" t="inlineStr"/>
-      <c r="AH188" t="inlineStr"/>
-      <c r="AI188" t="inlineStr"/>
-      <c r="AJ188" t="inlineStr"/>
-      <c r="AK188" t="inlineStr"/>
-      <c r="AL188" t="inlineStr"/>
-      <c r="AM188" t="inlineStr"/>
-      <c r="AN188" t="inlineStr"/>
-      <c r="AO188" t="inlineStr"/>
-      <c r="AP188" t="inlineStr"/>
-      <c r="AQ188" t="inlineStr"/>
-      <c r="AR188" t="inlineStr"/>
-      <c r="AS188" t="inlineStr"/>
-      <c r="AT188" t="inlineStr"/>
-      <c r="AU188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr"/>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>Schilfweg</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>Magistratsbeschluss</t>
-        </is>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="b">
-        <v>0</v>
-      </c>
-      <c r="T189" t="inlineStr"/>
-      <c r="U189" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V189" t="inlineStr"/>
-      <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
-      <c r="Y189" t="inlineStr"/>
-      <c r="Z189" t="inlineStr"/>
-      <c r="AA189" t="inlineStr"/>
-      <c r="AB189" t="inlineStr"/>
-      <c r="AC189" t="inlineStr"/>
-      <c r="AD189" t="n">
-        <v>5755.688</v>
-      </c>
-      <c r="AE189" t="n">
-        <v>130.8111</v>
-      </c>
-      <c r="AF189" t="inlineStr"/>
-      <c r="AG189" t="inlineStr"/>
-      <c r="AH189" t="inlineStr"/>
-      <c r="AI189" t="inlineStr"/>
-      <c r="AJ189" t="inlineStr"/>
-      <c r="AK189" t="inlineStr"/>
-      <c r="AL189" t="inlineStr"/>
-      <c r="AM189" t="inlineStr"/>
-      <c r="AN189" t="inlineStr"/>
-      <c r="AO189" t="inlineStr"/>
-      <c r="AP189" t="inlineStr"/>
-      <c r="AQ189" t="inlineStr"/>
-      <c r="AR189" t="inlineStr"/>
-      <c r="AS189" t="inlineStr"/>
-      <c r="AT189" t="inlineStr"/>
-      <c r="AU189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr"/>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Stadlau</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>industriestraße</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>Magistratsbeschluss</t>
-        </is>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr"/>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="b">
-        <v>0</v>
-      </c>
-      <c r="T190" t="inlineStr"/>
-      <c r="U190" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V190" t="inlineStr"/>
-      <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
-      <c r="Z190" t="inlineStr"/>
-      <c r="AA190" t="inlineStr"/>
-      <c r="AB190" t="inlineStr"/>
-      <c r="AC190" t="inlineStr"/>
-      <c r="AD190" t="n">
-        <v>1162.765</v>
-      </c>
-      <c r="AE190" t="n">
-        <v>116.2765</v>
-      </c>
-      <c r="AF190" t="inlineStr"/>
-      <c r="AG190" t="inlineStr"/>
-      <c r="AH190" t="inlineStr"/>
-      <c r="AI190" t="inlineStr"/>
-      <c r="AJ190" t="inlineStr"/>
-      <c r="AK190" t="inlineStr"/>
-      <c r="AL190" t="inlineStr"/>
-      <c r="AM190" t="inlineStr"/>
-      <c r="AN190" t="inlineStr"/>
-      <c r="AO190" t="inlineStr"/>
-      <c r="AP190" t="inlineStr"/>
-      <c r="AQ190" t="inlineStr"/>
-      <c r="AR190" t="inlineStr"/>
-      <c r="AS190" t="inlineStr"/>
-      <c r="AT190" t="inlineStr"/>
-      <c r="AU190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr"/>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Luitpold-Stern-Gasse</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>GR Beschluss</t>
-        </is>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="inlineStr"/>
-      <c r="N191" t="inlineStr"/>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="b">
-        <v>0</v>
-      </c>
-      <c r="T191" t="inlineStr"/>
-      <c r="U191" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V191" t="inlineStr"/>
-      <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
-      <c r="Y191" t="inlineStr"/>
-      <c r="Z191" t="inlineStr"/>
-      <c r="AA191" t="inlineStr"/>
-      <c r="AB191" t="inlineStr"/>
-      <c r="AC191" t="inlineStr"/>
-      <c r="AD191" t="n">
-        <v>161179.3</v>
-      </c>
-      <c r="AE191" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF191" t="inlineStr"/>
-      <c r="AG191" t="inlineStr"/>
-      <c r="AH191" t="inlineStr"/>
-      <c r="AI191" t="inlineStr"/>
-      <c r="AJ191" t="inlineStr"/>
-      <c r="AK191" t="inlineStr"/>
-      <c r="AL191" t="inlineStr"/>
-      <c r="AM191" t="inlineStr"/>
-      <c r="AN191" t="inlineStr"/>
-      <c r="AO191" t="inlineStr"/>
-      <c r="AP191" t="inlineStr"/>
-      <c r="AQ191" t="inlineStr"/>
-      <c r="AR191" t="inlineStr"/>
-      <c r="AS191" t="inlineStr"/>
-      <c r="AT191" t="inlineStr"/>
-      <c r="AU191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr"/>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Luitpold-Stern-Gasse</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr">
-        <is>
-          <t>GR Beschluss</t>
-        </is>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="b">
-        <v>0</v>
-      </c>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V192" t="inlineStr"/>
-      <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr"/>
-      <c r="Z192" t="inlineStr"/>
-      <c r="AA192" t="inlineStr"/>
-      <c r="AB192" t="inlineStr"/>
-      <c r="AC192" t="inlineStr"/>
-      <c r="AD192" t="n">
-        <v>161179.3</v>
-      </c>
-      <c r="AE192" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF192" t="inlineStr"/>
-      <c r="AG192" t="inlineStr"/>
-      <c r="AH192" t="inlineStr"/>
-      <c r="AI192" t="inlineStr"/>
-      <c r="AJ192" t="inlineStr"/>
-      <c r="AK192" t="inlineStr"/>
-      <c r="AL192" t="inlineStr"/>
-      <c r="AM192" t="inlineStr"/>
-      <c r="AN192" t="inlineStr"/>
-      <c r="AO192" t="inlineStr"/>
-      <c r="AP192" t="inlineStr"/>
-      <c r="AQ192" t="inlineStr"/>
-      <c r="AR192" t="inlineStr"/>
-      <c r="AS192" t="inlineStr"/>
-      <c r="AT192" t="inlineStr"/>
-      <c r="AU192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Lainz</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Küniglberggasse</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>GR Beschluss</t>
-        </is>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="inlineStr"/>
-      <c r="N193" t="inlineStr"/>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="b">
-        <v>0</v>
-      </c>
-      <c r="T193" t="inlineStr"/>
-      <c r="U193" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V193" t="inlineStr"/>
-      <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
-      <c r="Z193" t="inlineStr"/>
-      <c r="AA193" t="inlineStr"/>
-      <c r="AB193" t="inlineStr"/>
-      <c r="AC193" t="inlineStr"/>
-      <c r="AD193" t="n">
-        <v>242698.2</v>
-      </c>
-      <c r="AE193" t="n">
-        <v>239.8204</v>
-      </c>
-      <c r="AF193" t="inlineStr"/>
-      <c r="AG193" t="inlineStr"/>
-      <c r="AH193" t="inlineStr"/>
-      <c r="AI193" t="inlineStr"/>
-      <c r="AJ193" t="inlineStr"/>
-      <c r="AK193" t="inlineStr"/>
-      <c r="AL193" t="inlineStr"/>
-      <c r="AM193" t="inlineStr"/>
-      <c r="AN193" t="inlineStr"/>
-      <c r="AO193" t="inlineStr"/>
-      <c r="AP193" t="inlineStr"/>
-      <c r="AQ193" t="inlineStr"/>
-      <c r="AR193" t="inlineStr"/>
-      <c r="AS193" t="inlineStr"/>
-      <c r="AT193" t="inlineStr"/>
-      <c r="AU193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr"/>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Meidling</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>1120</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Weißenthurngasse</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>Versteigerung</t>
-        </is>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr"/>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="b">
-        <v>0</v>
-      </c>
-      <c r="T194" t="inlineStr"/>
-      <c r="U194" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V194" t="inlineStr"/>
-      <c r="W194" t="inlineStr"/>
-      <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr"/>
-      <c r="Z194" t="inlineStr"/>
-      <c r="AA194" t="inlineStr"/>
-      <c r="AB194" t="inlineStr"/>
-      <c r="AC194" t="inlineStr"/>
-      <c r="AD194" t="n">
-        <v>289964.6</v>
-      </c>
-      <c r="AE194" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF194" t="inlineStr"/>
-      <c r="AG194" t="inlineStr"/>
-      <c r="AH194" t="inlineStr"/>
-      <c r="AI194" t="inlineStr"/>
-      <c r="AJ194" t="inlineStr"/>
-      <c r="AK194" t="inlineStr"/>
-      <c r="AL194" t="inlineStr"/>
-      <c r="AM194" t="inlineStr"/>
-      <c r="AN194" t="inlineStr"/>
-      <c r="AO194" t="inlineStr"/>
-      <c r="AP194" t="inlineStr"/>
-      <c r="AQ194" t="inlineStr"/>
-      <c r="AR194" t="inlineStr"/>
-      <c r="AS194" t="inlineStr"/>
-      <c r="AT194" t="inlineStr"/>
-      <c r="AU194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr"/>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Leopoldstadt</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>1020</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>Große Stadtgutgasse</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="b">
-        <v>0</v>
-      </c>
-      <c r="T195" t="inlineStr"/>
-      <c r="U195" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V195" t="inlineStr"/>
-      <c r="W195" t="inlineStr"/>
-      <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
-      <c r="Z195" t="inlineStr"/>
-      <c r="AA195" t="inlineStr"/>
-      <c r="AB195" t="inlineStr"/>
-      <c r="AC195" t="inlineStr"/>
-      <c r="AD195" t="n">
-        <v>857539</v>
-      </c>
-      <c r="AE195" t="inlineStr"/>
-      <c r="AF195" t="inlineStr"/>
-      <c r="AG195" t="inlineStr"/>
-      <c r="AH195" t="inlineStr"/>
-      <c r="AI195" t="inlineStr"/>
-      <c r="AJ195" t="inlineStr"/>
-      <c r="AK195" t="inlineStr"/>
-      <c r="AL195" t="inlineStr"/>
-      <c r="AM195" t="inlineStr"/>
-      <c r="AN195" t="inlineStr"/>
-      <c r="AO195" t="inlineStr"/>
-      <c r="AP195" t="inlineStr"/>
-      <c r="AQ195" t="inlineStr"/>
-      <c r="AR195" t="inlineStr"/>
-      <c r="AS195" t="inlineStr"/>
-      <c r="AT195" t="inlineStr"/>
-      <c r="AU195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr"/>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Margarethen</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>Wiedner Hauptstraße</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="b">
-        <v>0</v>
-      </c>
-      <c r="T196" t="inlineStr"/>
-      <c r="U196" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V196" t="inlineStr"/>
-      <c r="W196" t="inlineStr"/>
-      <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr"/>
-      <c r="Z196" t="inlineStr"/>
-      <c r="AA196" t="inlineStr"/>
-      <c r="AB196" t="inlineStr"/>
-      <c r="AC196" t="inlineStr"/>
-      <c r="AD196" t="inlineStr"/>
-      <c r="AE196" t="inlineStr"/>
-      <c r="AF196" t="inlineStr"/>
-      <c r="AG196" t="inlineStr"/>
-      <c r="AH196" t="inlineStr"/>
-      <c r="AI196" t="inlineStr"/>
-      <c r="AJ196" t="inlineStr"/>
-      <c r="AK196" t="inlineStr"/>
-      <c r="AL196" t="inlineStr"/>
-      <c r="AM196" t="inlineStr"/>
-      <c r="AN196" t="inlineStr"/>
-      <c r="AO196" t="inlineStr"/>
-      <c r="AP196" t="inlineStr"/>
-      <c r="AQ196" t="inlineStr"/>
-      <c r="AR196" t="inlineStr"/>
-      <c r="AS196" t="inlineStr"/>
-      <c r="AT196" t="inlineStr"/>
-      <c r="AU196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr"/>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Neubau</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>Kaiserstraße</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr"/>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="b">
-        <v>0</v>
-      </c>
-      <c r="T197" t="inlineStr"/>
-      <c r="U197" t="inlineStr">
-        <is>
-          <t>Mietwohnhaus voll/tw. vermietet</t>
-        </is>
-      </c>
-      <c r="V197" t="inlineStr"/>
-      <c r="W197" t="inlineStr"/>
-      <c r="X197" t="inlineStr"/>
-      <c r="Y197" t="inlineStr"/>
-      <c r="Z197" t="inlineStr"/>
-      <c r="AA197" t="inlineStr"/>
-      <c r="AB197" t="inlineStr"/>
-      <c r="AC197" t="inlineStr"/>
-      <c r="AD197" t="inlineStr"/>
-      <c r="AE197" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF197" t="inlineStr"/>
-      <c r="AG197" t="inlineStr"/>
-      <c r="AH197" t="inlineStr"/>
-      <c r="AI197" t="inlineStr"/>
-      <c r="AJ197" t="inlineStr"/>
-      <c r="AK197" t="inlineStr"/>
-      <c r="AL197" t="inlineStr"/>
-      <c r="AM197" t="inlineStr"/>
-      <c r="AN197" t="inlineStr"/>
-      <c r="AO197" t="inlineStr"/>
-      <c r="AP197" t="inlineStr"/>
-      <c r="AQ197" t="inlineStr"/>
-      <c r="AR197" t="inlineStr"/>
-      <c r="AS197" t="inlineStr"/>
-      <c r="AT197" t="inlineStr"/>
-      <c r="AU197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr"/>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Erlaa</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>Welingergasse</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="b">
-        <v>0</v>
-      </c>
-      <c r="T198" t="inlineStr"/>
-      <c r="U198" t="inlineStr">
-        <is>
-          <t>Abbruchobjekt</t>
-        </is>
-      </c>
-      <c r="V198" t="inlineStr"/>
-      <c r="W198" t="inlineStr"/>
-      <c r="X198" t="inlineStr"/>
-      <c r="Y198" t="inlineStr"/>
-      <c r="Z198" t="inlineStr"/>
-      <c r="AA198" t="inlineStr"/>
-      <c r="AB198" t="inlineStr"/>
-      <c r="AC198" t="inlineStr"/>
-      <c r="AD198" t="n">
-        <v>320000</v>
-      </c>
-      <c r="AE198" t="n">
-        <v>461.1111</v>
-      </c>
-      <c r="AF198" t="inlineStr"/>
-      <c r="AG198" t="inlineStr"/>
-      <c r="AH198" t="inlineStr"/>
-      <c r="AI198" t="inlineStr"/>
-      <c r="AJ198" t="inlineStr"/>
-      <c r="AK198" t="inlineStr"/>
-      <c r="AL198" t="inlineStr"/>
-      <c r="AM198" t="inlineStr"/>
-      <c r="AN198" t="inlineStr"/>
-      <c r="AO198" t="inlineStr"/>
-      <c r="AP198" t="inlineStr"/>
-      <c r="AQ198" t="inlineStr"/>
-      <c r="AR198" t="inlineStr"/>
-      <c r="AS198" t="inlineStr"/>
-      <c r="AT198" t="inlineStr"/>
-      <c r="AU198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr"/>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Süßenbrunn</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>Pröpstlgasse</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="b">
-        <v>0</v>
-      </c>
-      <c r="T199" t="inlineStr"/>
-      <c r="U199" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V199" t="inlineStr"/>
-      <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr"/>
-      <c r="Y199" t="inlineStr"/>
-      <c r="Z199" t="inlineStr"/>
-      <c r="AA199" t="inlineStr"/>
-      <c r="AB199" t="inlineStr"/>
-      <c r="AC199" t="inlineStr"/>
-      <c r="AD199" t="n">
-        <v>150000</v>
-      </c>
-      <c r="AE199" t="inlineStr"/>
-      <c r="AF199" t="inlineStr"/>
-      <c r="AG199" t="inlineStr"/>
-      <c r="AH199" t="inlineStr"/>
-      <c r="AI199" t="inlineStr"/>
-      <c r="AJ199" t="inlineStr"/>
-      <c r="AK199" t="inlineStr"/>
-      <c r="AL199" t="inlineStr"/>
-      <c r="AM199" t="inlineStr"/>
-      <c r="AN199" t="inlineStr"/>
-      <c r="AO199" t="inlineStr"/>
-      <c r="AP199" t="inlineStr"/>
-      <c r="AQ199" t="inlineStr"/>
-      <c r="AR199" t="inlineStr"/>
-      <c r="AS199" t="inlineStr"/>
-      <c r="AT199" t="inlineStr"/>
-      <c r="AU199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr"/>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Siebenhirten</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>Anton-Freunschlag-Gasse</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="b">
-        <v>0</v>
-      </c>
-      <c r="T200" t="inlineStr"/>
-      <c r="U200" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V200" t="inlineStr"/>
-      <c r="W200" t="inlineStr"/>
-      <c r="X200" t="inlineStr"/>
-      <c r="Y200" t="inlineStr"/>
-      <c r="Z200" t="inlineStr"/>
-      <c r="AA200" t="inlineStr"/>
-      <c r="AB200" t="inlineStr"/>
-      <c r="AC200" t="inlineStr"/>
-      <c r="AD200" t="n">
-        <v>234710</v>
-      </c>
-      <c r="AE200" t="n">
-        <v>301.2965</v>
-      </c>
-      <c r="AF200" t="inlineStr"/>
-      <c r="AG200" t="inlineStr"/>
-      <c r="AH200" t="inlineStr"/>
-      <c r="AI200" t="inlineStr"/>
-      <c r="AJ200" t="inlineStr"/>
-      <c r="AK200" t="inlineStr"/>
-      <c r="AL200" t="inlineStr"/>
-      <c r="AM200" t="inlineStr"/>
-      <c r="AN200" t="inlineStr"/>
-      <c r="AO200" t="inlineStr"/>
-      <c r="AP200" t="inlineStr"/>
-      <c r="AQ200" t="inlineStr"/>
-      <c r="AR200" t="inlineStr"/>
-      <c r="AS200" t="inlineStr"/>
-      <c r="AT200" t="inlineStr"/>
-      <c r="AU200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr"/>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Mauer</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>Heudörfelgasse</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr"/>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="b">
-        <v>0</v>
-      </c>
-      <c r="T201" t="inlineStr"/>
-      <c r="U201" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V201" t="inlineStr"/>
-      <c r="W201" t="inlineStr"/>
-      <c r="X201" t="inlineStr"/>
-      <c r="Y201" t="inlineStr"/>
-      <c r="Z201" t="inlineStr"/>
-      <c r="AA201" t="inlineStr"/>
-      <c r="AB201" t="inlineStr"/>
-      <c r="AC201" t="inlineStr"/>
-      <c r="AD201" t="n">
-        <v>462500</v>
-      </c>
-      <c r="AE201" t="inlineStr"/>
-      <c r="AF201" t="inlineStr"/>
-      <c r="AG201" t="inlineStr"/>
-      <c r="AH201" t="inlineStr"/>
-      <c r="AI201" t="inlineStr"/>
-      <c r="AJ201" t="inlineStr"/>
-      <c r="AK201" t="inlineStr"/>
-      <c r="AL201" t="inlineStr"/>
-      <c r="AM201" t="inlineStr"/>
-      <c r="AN201" t="inlineStr"/>
-      <c r="AO201" t="inlineStr"/>
-      <c r="AP201" t="inlineStr"/>
-      <c r="AQ201" t="inlineStr"/>
-      <c r="AR201" t="inlineStr"/>
-      <c r="AS201" t="inlineStr"/>
-      <c r="AT201" t="inlineStr"/>
-      <c r="AU201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr"/>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Altmannsdorf</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>1120</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>Breitenfurter Straße</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr"/>
-      <c r="N202" t="inlineStr"/>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="b">
-        <v>0</v>
-      </c>
-      <c r="T202" t="inlineStr"/>
-      <c r="U202" t="inlineStr">
-        <is>
-          <t>Mietwohnhaus voll/tw. vermietet</t>
-        </is>
-      </c>
-      <c r="V202" t="inlineStr"/>
-      <c r="W202" t="inlineStr"/>
-      <c r="X202" t="inlineStr"/>
-      <c r="Y202" t="inlineStr"/>
-      <c r="Z202" t="inlineStr"/>
-      <c r="AA202" t="inlineStr"/>
-      <c r="AB202" t="inlineStr"/>
-      <c r="AC202" t="inlineStr"/>
-      <c r="AD202" t="n">
-        <v>1005000</v>
-      </c>
-      <c r="AE202" t="inlineStr"/>
-      <c r="AF202" t="inlineStr"/>
-      <c r="AG202" t="inlineStr"/>
-      <c r="AH202" t="inlineStr"/>
-      <c r="AI202" t="inlineStr"/>
-      <c r="AJ202" t="inlineStr"/>
-      <c r="AK202" t="inlineStr"/>
-      <c r="AL202" t="inlineStr"/>
-      <c r="AM202" t="inlineStr"/>
-      <c r="AN202" t="inlineStr"/>
-      <c r="AO202" t="inlineStr"/>
-      <c r="AP202" t="inlineStr"/>
-      <c r="AQ202" t="inlineStr"/>
-      <c r="AR202" t="inlineStr"/>
-      <c r="AS202" t="inlineStr"/>
-      <c r="AT202" t="inlineStr"/>
-      <c r="AU202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr"/>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Ober St.Veit</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>Hietzinger Hauptstraße</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr"/>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="b">
-        <v>0</v>
-      </c>
-      <c r="T203" t="inlineStr"/>
-      <c r="U203" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V203" t="inlineStr"/>
-      <c r="W203" t="inlineStr"/>
-      <c r="X203" t="inlineStr"/>
-      <c r="Y203" t="inlineStr"/>
-      <c r="Z203" t="inlineStr"/>
-      <c r="AA203" t="inlineStr"/>
-      <c r="AB203" t="inlineStr"/>
-      <c r="AC203" t="inlineStr"/>
-      <c r="AD203" t="n">
-        <v>22000</v>
-      </c>
-      <c r="AE203" t="inlineStr"/>
-      <c r="AF203" t="inlineStr"/>
-      <c r="AG203" t="inlineStr"/>
-      <c r="AH203" t="inlineStr"/>
-      <c r="AI203" t="inlineStr"/>
-      <c r="AJ203" t="inlineStr"/>
-      <c r="AK203" t="inlineStr"/>
-      <c r="AL203" t="inlineStr"/>
-      <c r="AM203" t="inlineStr"/>
-      <c r="AN203" t="inlineStr"/>
-      <c r="AO203" t="inlineStr"/>
-      <c r="AP203" t="inlineStr"/>
-      <c r="AQ203" t="inlineStr"/>
-      <c r="AR203" t="inlineStr"/>
-      <c r="AS203" t="inlineStr"/>
-      <c r="AT203" t="inlineStr"/>
-      <c r="AU203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr"/>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Meidling</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>1120</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>Fockygasse</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr"/>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="b">
-        <v>0</v>
-      </c>
-      <c r="T204" t="inlineStr"/>
-      <c r="U204" t="inlineStr">
-        <is>
-          <t>Mietwohnhaus voll/tw. vermietet</t>
-        </is>
-      </c>
-      <c r="V204" t="inlineStr"/>
-      <c r="W204" t="inlineStr"/>
-      <c r="X204" t="inlineStr"/>
-      <c r="Y204" t="inlineStr"/>
-      <c r="Z204" t="inlineStr"/>
-      <c r="AA204" t="inlineStr"/>
-      <c r="AB204" t="inlineStr"/>
-      <c r="AC204" t="inlineStr"/>
-      <c r="AD204" t="n">
-        <v>370000</v>
-      </c>
-      <c r="AE204" t="inlineStr"/>
-      <c r="AF204" t="inlineStr"/>
-      <c r="AG204" t="inlineStr"/>
-      <c r="AH204" t="inlineStr"/>
-      <c r="AI204" t="inlineStr"/>
-      <c r="AJ204" t="inlineStr"/>
-      <c r="AK204" t="inlineStr"/>
-      <c r="AL204" t="inlineStr"/>
-      <c r="AM204" t="inlineStr"/>
-      <c r="AN204" t="inlineStr"/>
-      <c r="AO204" t="inlineStr"/>
-      <c r="AP204" t="inlineStr"/>
-      <c r="AQ204" t="inlineStr"/>
-      <c r="AR204" t="inlineStr"/>
-      <c r="AS204" t="inlineStr"/>
-      <c r="AT204" t="inlineStr"/>
-      <c r="AU204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr"/>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Erlaa</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>Eitnergasse</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="inlineStr"/>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="b">
-        <v>0</v>
-      </c>
-      <c r="T205" t="inlineStr"/>
-      <c r="U205" t="inlineStr">
-        <is>
-          <t>Betriebsobjekt</t>
-        </is>
-      </c>
-      <c r="V205" t="inlineStr"/>
-      <c r="W205" t="inlineStr"/>
-      <c r="X205" t="inlineStr"/>
-      <c r="Y205" t="inlineStr"/>
-      <c r="Z205" t="inlineStr"/>
-      <c r="AA205" t="inlineStr"/>
-      <c r="AB205" t="inlineStr"/>
-      <c r="AC205" t="inlineStr"/>
-      <c r="AD205" t="n">
-        <v>1097000</v>
-      </c>
-      <c r="AE205" t="inlineStr"/>
-      <c r="AF205" t="inlineStr"/>
-      <c r="AG205" t="inlineStr"/>
-      <c r="AH205" t="inlineStr"/>
-      <c r="AI205" t="inlineStr"/>
-      <c r="AJ205" t="inlineStr"/>
-      <c r="AK205" t="inlineStr"/>
-      <c r="AL205" t="inlineStr"/>
-      <c r="AM205" t="inlineStr"/>
-      <c r="AN205" t="inlineStr"/>
-      <c r="AO205" t="inlineStr"/>
-      <c r="AP205" t="inlineStr"/>
-      <c r="AQ205" t="inlineStr"/>
-      <c r="AR205" t="inlineStr"/>
-      <c r="AS205" t="inlineStr"/>
-      <c r="AT205" t="inlineStr"/>
-      <c r="AU205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr"/>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Mauer</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Aschbachgasse</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr"/>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="b">
-        <v>0</v>
-      </c>
-      <c r="T206" t="inlineStr"/>
-      <c r="U206" t="inlineStr">
-        <is>
-          <t>Weingarten</t>
-        </is>
-      </c>
-      <c r="V206" t="inlineStr"/>
-      <c r="W206" t="inlineStr"/>
-      <c r="X206" t="inlineStr"/>
-      <c r="Y206" t="inlineStr"/>
-      <c r="Z206" t="inlineStr"/>
-      <c r="AA206" t="inlineStr"/>
-      <c r="AB206" t="inlineStr"/>
-      <c r="AC206" t="inlineStr"/>
-      <c r="AD206" t="n">
-        <v>25000</v>
-      </c>
-      <c r="AE206" t="n">
-        <v>20.19386</v>
-      </c>
-      <c r="AF206" t="inlineStr"/>
-      <c r="AG206" t="inlineStr"/>
-      <c r="AH206" t="inlineStr"/>
-      <c r="AI206" t="inlineStr"/>
-      <c r="AJ206" t="inlineStr"/>
-      <c r="AK206" t="inlineStr"/>
-      <c r="AL206" t="inlineStr"/>
-      <c r="AM206" t="inlineStr"/>
-      <c r="AN206" t="inlineStr"/>
-      <c r="AO206" t="inlineStr"/>
-      <c r="AP206" t="inlineStr"/>
-      <c r="AQ206" t="inlineStr"/>
-      <c r="AR206" t="inlineStr"/>
-      <c r="AS206" t="inlineStr"/>
-      <c r="AT206" t="inlineStr"/>
-      <c r="AU206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr"/>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Liesing</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>Brunner Straße</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr"/>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="b">
-        <v>0</v>
-      </c>
-      <c r="T207" t="inlineStr"/>
-      <c r="U207" t="inlineStr">
-        <is>
-          <t>Büro- u./o. Geschäftsgebäude</t>
-        </is>
-      </c>
-      <c r="V207" t="inlineStr"/>
-      <c r="W207" t="inlineStr"/>
-      <c r="X207" t="inlineStr"/>
-      <c r="Y207" t="inlineStr"/>
-      <c r="Z207" t="inlineStr"/>
-      <c r="AA207" t="inlineStr"/>
-      <c r="AB207" t="inlineStr"/>
-      <c r="AC207" t="inlineStr"/>
-      <c r="AD207" t="n">
-        <v>1222557</v>
-      </c>
-      <c r="AE207" t="inlineStr"/>
-      <c r="AF207" t="inlineStr"/>
-      <c r="AG207" t="inlineStr"/>
-      <c r="AH207" t="inlineStr"/>
-      <c r="AI207" t="inlineStr"/>
-      <c r="AJ207" t="inlineStr"/>
-      <c r="AK207" t="inlineStr"/>
-      <c r="AL207" t="inlineStr"/>
-      <c r="AM207" t="inlineStr"/>
-      <c r="AN207" t="inlineStr"/>
-      <c r="AO207" t="inlineStr"/>
-      <c r="AP207" t="inlineStr"/>
-      <c r="AQ207" t="inlineStr"/>
-      <c r="AR207" t="inlineStr"/>
-      <c r="AS207" t="inlineStr"/>
-      <c r="AT207" t="inlineStr"/>
-      <c r="AU207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr"/>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>Aspernstraße</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="b">
-        <v>0</v>
-      </c>
-      <c r="T208" t="inlineStr"/>
-      <c r="U208" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V208" t="inlineStr"/>
-      <c r="W208" t="inlineStr"/>
-      <c r="X208" t="inlineStr"/>
-      <c r="Y208" t="inlineStr"/>
-      <c r="Z208" t="inlineStr"/>
-      <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="inlineStr"/>
-      <c r="AC208" t="inlineStr"/>
-      <c r="AD208" t="n">
-        <v>1810287</v>
-      </c>
-      <c r="AE208" t="n">
-        <v>182.2131</v>
-      </c>
-      <c r="AF208" t="inlineStr"/>
-      <c r="AG208" t="inlineStr"/>
-      <c r="AH208" t="inlineStr"/>
-      <c r="AI208" t="inlineStr"/>
-      <c r="AJ208" t="inlineStr"/>
-      <c r="AK208" t="inlineStr"/>
-      <c r="AL208" t="inlineStr"/>
-      <c r="AM208" t="inlineStr"/>
-      <c r="AN208" t="inlineStr"/>
-      <c r="AO208" t="inlineStr"/>
-      <c r="AP208" t="inlineStr"/>
-      <c r="AQ208" t="inlineStr"/>
-      <c r="AR208" t="inlineStr"/>
-      <c r="AS208" t="inlineStr"/>
-      <c r="AT208" t="inlineStr"/>
-      <c r="AU208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr"/>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Auhof</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>Dostalgasse</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr">
-        <is>
-          <t>Magistratsbeschluss</t>
-        </is>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr"/>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="b">
-        <v>0</v>
-      </c>
-      <c r="T209" t="inlineStr"/>
-      <c r="U209" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V209" t="inlineStr"/>
-      <c r="W209" t="inlineStr"/>
-      <c r="X209" t="inlineStr"/>
-      <c r="Y209" t="inlineStr"/>
-      <c r="Z209" t="inlineStr"/>
-      <c r="AA209" t="inlineStr"/>
-      <c r="AB209" t="inlineStr"/>
-      <c r="AC209" t="inlineStr"/>
-      <c r="AD209" t="n">
-        <v>315000</v>
-      </c>
-      <c r="AE209" t="inlineStr"/>
-      <c r="AF209" t="inlineStr"/>
-      <c r="AG209" t="inlineStr"/>
-      <c r="AH209" t="inlineStr"/>
-      <c r="AI209" t="inlineStr"/>
-      <c r="AJ209" t="inlineStr"/>
-      <c r="AK209" t="inlineStr"/>
-      <c r="AL209" t="inlineStr"/>
-      <c r="AM209" t="inlineStr"/>
-      <c r="AN209" t="inlineStr"/>
-      <c r="AO209" t="inlineStr"/>
-      <c r="AP209" t="inlineStr"/>
-      <c r="AQ209" t="inlineStr"/>
-      <c r="AR209" t="inlineStr"/>
-      <c r="AS209" t="inlineStr"/>
-      <c r="AT209" t="inlineStr"/>
-      <c r="AU209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr"/>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Ober St.Veit</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>Wlassakstraße</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="b">
-        <v>0</v>
-      </c>
-      <c r="T210" t="inlineStr"/>
-      <c r="U210" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V210" t="inlineStr"/>
-      <c r="W210" t="inlineStr"/>
-      <c r="X210" t="inlineStr"/>
-      <c r="Y210" t="inlineStr"/>
-      <c r="Z210" t="inlineStr"/>
-      <c r="AA210" t="inlineStr"/>
-      <c r="AB210" t="inlineStr"/>
-      <c r="AC210" t="inlineStr"/>
-      <c r="AD210" t="n">
-        <v>482972.9</v>
-      </c>
-      <c r="AE210" t="inlineStr"/>
-      <c r="AF210" t="inlineStr"/>
-      <c r="AG210" t="inlineStr"/>
-      <c r="AH210" t="inlineStr"/>
-      <c r="AI210" t="inlineStr"/>
-      <c r="AJ210" t="inlineStr"/>
-      <c r="AK210" t="inlineStr"/>
-      <c r="AL210" t="inlineStr"/>
-      <c r="AM210" t="inlineStr"/>
-      <c r="AN210" t="inlineStr"/>
-      <c r="AO210" t="inlineStr"/>
-      <c r="AP210" t="inlineStr"/>
-      <c r="AQ210" t="inlineStr"/>
-      <c r="AR210" t="inlineStr"/>
-      <c r="AS210" t="inlineStr"/>
-      <c r="AT210" t="inlineStr"/>
-      <c r="AU210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr"/>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Meidling</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>1120</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
-      <c r="N211" t="inlineStr"/>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="b">
-        <v>0</v>
-      </c>
-      <c r="T211" t="inlineStr"/>
-      <c r="U211" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V211" t="inlineStr"/>
-      <c r="W211" t="inlineStr"/>
-      <c r="X211" t="inlineStr"/>
-      <c r="Y211" t="inlineStr"/>
-      <c r="Z211" t="inlineStr"/>
-      <c r="AA211" t="inlineStr"/>
-      <c r="AB211" t="inlineStr"/>
-      <c r="AC211" t="inlineStr"/>
-      <c r="AD211" t="inlineStr"/>
-      <c r="AE211" t="inlineStr"/>
-      <c r="AF211" t="inlineStr"/>
-      <c r="AG211" t="inlineStr"/>
-      <c r="AH211" t="inlineStr"/>
-      <c r="AI211" t="inlineStr"/>
-      <c r="AJ211" t="inlineStr"/>
-      <c r="AK211" t="inlineStr"/>
-      <c r="AL211" t="inlineStr"/>
-      <c r="AM211" t="inlineStr"/>
-      <c r="AN211" t="inlineStr"/>
-      <c r="AO211" t="inlineStr"/>
-      <c r="AP211" t="inlineStr"/>
-      <c r="AQ211" t="inlineStr"/>
-      <c r="AR211" t="inlineStr"/>
-      <c r="AS211" t="inlineStr"/>
-      <c r="AT211" t="inlineStr"/>
-      <c r="AU211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr"/>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Inzersdorf</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>Triester Straße</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr"/>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="b">
-        <v>0</v>
-      </c>
-      <c r="T212" t="inlineStr"/>
-      <c r="U212" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V212" t="inlineStr"/>
-      <c r="W212" t="inlineStr"/>
-      <c r="X212" t="inlineStr"/>
-      <c r="Y212" t="inlineStr"/>
-      <c r="Z212" t="inlineStr"/>
-      <c r="AA212" t="inlineStr"/>
-      <c r="AB212" t="inlineStr"/>
-      <c r="AC212" t="inlineStr"/>
-      <c r="AD212" t="n">
-        <v>296000</v>
-      </c>
-      <c r="AE212" t="n">
-        <v>347.4178</v>
-      </c>
-      <c r="AF212" t="inlineStr"/>
-      <c r="AG212" t="inlineStr"/>
-      <c r="AH212" t="inlineStr"/>
-      <c r="AI212" t="inlineStr"/>
-      <c r="AJ212" t="inlineStr"/>
-      <c r="AK212" t="inlineStr"/>
-      <c r="AL212" t="inlineStr"/>
-      <c r="AM212" t="inlineStr"/>
-      <c r="AN212" t="inlineStr"/>
-      <c r="AO212" t="inlineStr"/>
-      <c r="AP212" t="inlineStr"/>
-      <c r="AQ212" t="inlineStr"/>
-      <c r="AR212" t="inlineStr"/>
-      <c r="AS212" t="inlineStr"/>
-      <c r="AT212" t="inlineStr"/>
-      <c r="AU212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr"/>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Speising</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>Hetzendorfer Straße</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr"/>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="b">
-        <v>0</v>
-      </c>
-      <c r="T213" t="inlineStr"/>
-      <c r="U213" t="inlineStr">
-        <is>
-          <t>Abbruchobjekt</t>
-        </is>
-      </c>
-      <c r="V213" t="inlineStr"/>
-      <c r="W213" t="inlineStr"/>
-      <c r="X213" t="inlineStr"/>
-      <c r="Y213" t="inlineStr"/>
-      <c r="Z213" t="inlineStr"/>
-      <c r="AA213" t="inlineStr"/>
-      <c r="AB213" t="inlineStr"/>
-      <c r="AC213" t="inlineStr"/>
-      <c r="AD213" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AE213" t="n">
-        <v>891.2655999999999</v>
-      </c>
-      <c r="AF213" t="inlineStr"/>
-      <c r="AG213" t="inlineStr"/>
-      <c r="AH213" t="inlineStr"/>
-      <c r="AI213" t="inlineStr"/>
-      <c r="AJ213" t="inlineStr"/>
-      <c r="AK213" t="inlineStr"/>
-      <c r="AL213" t="inlineStr"/>
-      <c r="AM213" t="inlineStr"/>
-      <c r="AN213" t="inlineStr"/>
-      <c r="AO213" t="inlineStr"/>
-      <c r="AP213" t="inlineStr"/>
-      <c r="AQ213" t="inlineStr"/>
-      <c r="AR213" t="inlineStr"/>
-      <c r="AS213" t="inlineStr"/>
-      <c r="AT213" t="inlineStr"/>
-      <c r="AU213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr"/>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Margarethen</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>Reinprechtsdorfer Straße</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="b">
-        <v>0</v>
-      </c>
-      <c r="T214" t="inlineStr"/>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>Mietwohnhaus voll/tw. vermietet</t>
-        </is>
-      </c>
-      <c r="V214" t="inlineStr"/>
-      <c r="W214" t="inlineStr"/>
-      <c r="X214" t="inlineStr"/>
-      <c r="Y214" t="inlineStr"/>
-      <c r="Z214" t="inlineStr"/>
-      <c r="AA214" t="inlineStr"/>
-      <c r="AB214" t="inlineStr"/>
-      <c r="AC214" t="inlineStr"/>
-      <c r="AD214" t="n">
-        <v>495602</v>
-      </c>
-      <c r="AE214" t="inlineStr"/>
-      <c r="AF214" t="inlineStr"/>
-      <c r="AG214" t="inlineStr"/>
-      <c r="AH214" t="inlineStr"/>
-      <c r="AI214" t="inlineStr"/>
-      <c r="AJ214" t="inlineStr"/>
-      <c r="AK214" t="inlineStr"/>
-      <c r="AL214" t="inlineStr"/>
-      <c r="AM214" t="inlineStr"/>
-      <c r="AN214" t="inlineStr"/>
-      <c r="AO214" t="inlineStr"/>
-      <c r="AP214" t="inlineStr"/>
-      <c r="AQ214" t="inlineStr"/>
-      <c r="AR214" t="inlineStr"/>
-      <c r="AS214" t="inlineStr"/>
-      <c r="AT214" t="inlineStr"/>
-      <c r="AU214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr"/>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Ober St.Veit</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>Veitingergasse</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr"/>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="b">
-        <v>0</v>
-      </c>
-      <c r="T215" t="inlineStr"/>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>Ein-, Zweifamilienhaus</t>
-        </is>
-      </c>
-      <c r="V215" t="inlineStr"/>
-      <c r="W215" t="inlineStr"/>
-      <c r="X215" t="inlineStr"/>
-      <c r="Y215" t="inlineStr"/>
-      <c r="Z215" t="inlineStr"/>
-      <c r="AA215" t="inlineStr"/>
-      <c r="AB215" t="inlineStr"/>
-      <c r="AC215" t="inlineStr"/>
-      <c r="AD215" t="n">
-        <v>420000</v>
-      </c>
-      <c r="AE215" t="inlineStr"/>
-      <c r="AF215" t="inlineStr"/>
-      <c r="AG215" t="inlineStr"/>
-      <c r="AH215" t="inlineStr"/>
-      <c r="AI215" t="inlineStr"/>
-      <c r="AJ215" t="inlineStr"/>
-      <c r="AK215" t="inlineStr"/>
-      <c r="AL215" t="inlineStr"/>
-      <c r="AM215" t="inlineStr"/>
-      <c r="AN215" t="inlineStr"/>
-      <c r="AO215" t="inlineStr"/>
-      <c r="AP215" t="inlineStr"/>
-      <c r="AQ215" t="inlineStr"/>
-      <c r="AR215" t="inlineStr"/>
-      <c r="AS215" t="inlineStr"/>
-      <c r="AT215" t="inlineStr"/>
-      <c r="AU215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr"/>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Groß Jedlersdorf I</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr"/>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="b">
-        <v>0</v>
-      </c>
-      <c r="T216" t="inlineStr"/>
-      <c r="U216" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V216" t="inlineStr"/>
-      <c r="W216" t="inlineStr"/>
-      <c r="X216" t="inlineStr"/>
-      <c r="Y216" t="inlineStr"/>
-      <c r="Z216" t="inlineStr"/>
-      <c r="AA216" t="inlineStr"/>
-      <c r="AB216" t="inlineStr"/>
-      <c r="AC216" t="inlineStr"/>
-      <c r="AD216" t="inlineStr"/>
-      <c r="AE216" t="inlineStr"/>
-      <c r="AF216" t="inlineStr"/>
-      <c r="AG216" t="inlineStr"/>
-      <c r="AH216" t="inlineStr"/>
-      <c r="AI216" t="inlineStr"/>
-      <c r="AJ216" t="inlineStr"/>
-      <c r="AK216" t="inlineStr"/>
-      <c r="AL216" t="inlineStr"/>
-      <c r="AM216" t="inlineStr"/>
-      <c r="AN216" t="inlineStr"/>
-      <c r="AO216" t="inlineStr"/>
-      <c r="AP216" t="inlineStr"/>
-      <c r="AQ216" t="inlineStr"/>
-      <c r="AR216" t="inlineStr"/>
-      <c r="AS216" t="inlineStr"/>
-      <c r="AT216" t="inlineStr"/>
-      <c r="AU216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr"/>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Lainz</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>Hofwiesengasse</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="b">
-        <v>0</v>
-      </c>
-      <c r="T217" t="inlineStr"/>
-      <c r="U217" t="inlineStr">
-        <is>
-          <t>Abbruchobjekt</t>
-        </is>
-      </c>
-      <c r="V217" t="inlineStr"/>
-      <c r="W217" t="inlineStr"/>
-      <c r="X217" t="inlineStr"/>
-      <c r="Y217" t="inlineStr"/>
-      <c r="Z217" t="inlineStr"/>
-      <c r="AA217" t="inlineStr"/>
-      <c r="AB217" t="inlineStr"/>
-      <c r="AC217" t="inlineStr"/>
-      <c r="AD217" t="n">
-        <v>867500</v>
-      </c>
-      <c r="AE217" t="n">
-        <v>800.2767</v>
-      </c>
-      <c r="AF217" t="inlineStr"/>
-      <c r="AG217" t="inlineStr"/>
-      <c r="AH217" t="inlineStr"/>
-      <c r="AI217" t="inlineStr"/>
-      <c r="AJ217" t="inlineStr"/>
-      <c r="AK217" t="inlineStr"/>
-      <c r="AL217" t="inlineStr"/>
-      <c r="AM217" t="inlineStr"/>
-      <c r="AN217" t="inlineStr"/>
-      <c r="AO217" t="inlineStr"/>
-      <c r="AP217" t="inlineStr"/>
-      <c r="AQ217" t="inlineStr"/>
-      <c r="AR217" t="inlineStr"/>
-      <c r="AS217" t="inlineStr"/>
-      <c r="AT217" t="inlineStr"/>
-      <c r="AU217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr"/>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>Hausfeldstraße</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr"/>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="b">
-        <v>1</v>
-      </c>
-      <c r="T218" t="inlineStr"/>
-      <c r="U218" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V218" t="inlineStr"/>
-      <c r="W218" t="inlineStr"/>
-      <c r="X218" t="inlineStr"/>
-      <c r="Y218" t="inlineStr"/>
-      <c r="Z218" t="inlineStr"/>
-      <c r="AA218" t="inlineStr"/>
-      <c r="AB218" t="inlineStr"/>
-      <c r="AC218" t="inlineStr"/>
-      <c r="AD218" t="n">
-        <v>100289</v>
-      </c>
-      <c r="AE218" t="n">
-        <v>99.79004999999999</v>
-      </c>
-      <c r="AF218" t="inlineStr"/>
-      <c r="AG218" t="inlineStr"/>
-      <c r="AH218" t="inlineStr"/>
-      <c r="AI218" t="inlineStr"/>
-      <c r="AJ218" t="inlineStr"/>
-      <c r="AK218" t="inlineStr"/>
-      <c r="AL218" t="inlineStr"/>
-      <c r="AM218" t="inlineStr"/>
-      <c r="AN218" t="inlineStr"/>
-      <c r="AO218" t="inlineStr"/>
-      <c r="AP218" t="inlineStr"/>
-      <c r="AQ218" t="inlineStr"/>
-      <c r="AR218" t="inlineStr"/>
-      <c r="AS218" t="inlineStr"/>
-      <c r="AT218" t="inlineStr"/>
-      <c r="AU218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr"/>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Kagran</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>Wagramer Straße</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
-      <c r="N219" t="inlineStr"/>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="b">
-        <v>0</v>
-      </c>
-      <c r="T219" t="inlineStr"/>
-      <c r="U219" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V219" t="inlineStr"/>
-      <c r="W219" t="inlineStr"/>
-      <c r="X219" t="inlineStr"/>
-      <c r="Y219" t="inlineStr"/>
-      <c r="Z219" t="inlineStr"/>
-      <c r="AA219" t="inlineStr"/>
-      <c r="AB219" t="inlineStr"/>
-      <c r="AC219" t="inlineStr"/>
-      <c r="AD219" t="n">
-        <v>735000</v>
-      </c>
-      <c r="AE219" t="n">
-        <v>965.8344</v>
-      </c>
-      <c r="AF219" t="inlineStr"/>
-      <c r="AG219" t="inlineStr"/>
-      <c r="AH219" t="inlineStr"/>
-      <c r="AI219" t="inlineStr"/>
-      <c r="AJ219" t="inlineStr"/>
-      <c r="AK219" t="inlineStr"/>
-      <c r="AL219" t="inlineStr"/>
-      <c r="AM219" t="inlineStr"/>
-      <c r="AN219" t="inlineStr"/>
-      <c r="AO219" t="inlineStr"/>
-      <c r="AP219" t="inlineStr"/>
-      <c r="AQ219" t="inlineStr"/>
-      <c r="AR219" t="inlineStr"/>
-      <c r="AS219" t="inlineStr"/>
-      <c r="AT219" t="inlineStr"/>
-      <c r="AU219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr"/>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>Hausfeldstraße</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr"/>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="b">
-        <v>1</v>
-      </c>
-      <c r="T220" t="inlineStr"/>
-      <c r="U220" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V220" t="inlineStr"/>
-      <c r="W220" t="inlineStr"/>
-      <c r="X220" t="inlineStr"/>
-      <c r="Y220" t="inlineStr"/>
-      <c r="Z220" t="inlineStr"/>
-      <c r="AA220" t="inlineStr"/>
-      <c r="AB220" t="inlineStr"/>
-      <c r="AC220" t="inlineStr"/>
-      <c r="AD220" t="n">
-        <v>90609.32000000001</v>
-      </c>
-      <c r="AE220" t="n">
-        <v>99.78964999999999</v>
-      </c>
-      <c r="AF220" t="inlineStr"/>
-      <c r="AG220" t="inlineStr"/>
-      <c r="AH220" t="inlineStr"/>
-      <c r="AI220" t="inlineStr"/>
-      <c r="AJ220" t="inlineStr"/>
-      <c r="AK220" t="inlineStr"/>
-      <c r="AL220" t="inlineStr"/>
-      <c r="AM220" t="inlineStr"/>
-      <c r="AN220" t="inlineStr"/>
-      <c r="AO220" t="inlineStr"/>
-      <c r="AP220" t="inlineStr"/>
-      <c r="AQ220" t="inlineStr"/>
-      <c r="AR220" t="inlineStr"/>
-      <c r="AS220" t="inlineStr"/>
-      <c r="AT220" t="inlineStr"/>
-      <c r="AU220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr"/>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>Hausfeldstraße</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr"/>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="b">
-        <v>1</v>
-      </c>
-      <c r="T221" t="inlineStr"/>
-      <c r="U221" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V221" t="inlineStr"/>
-      <c r="W221" t="inlineStr"/>
-      <c r="X221" t="inlineStr"/>
-      <c r="Y221" t="inlineStr"/>
-      <c r="Z221" t="inlineStr"/>
-      <c r="AA221" t="inlineStr"/>
-      <c r="AB221" t="inlineStr"/>
-      <c r="AC221" t="inlineStr"/>
-      <c r="AD221" t="n">
-        <v>728650</v>
-      </c>
-      <c r="AE221" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF221" t="inlineStr"/>
-      <c r="AG221" t="inlineStr"/>
-      <c r="AH221" t="inlineStr"/>
-      <c r="AI221" t="inlineStr"/>
-      <c r="AJ221" t="inlineStr"/>
-      <c r="AK221" t="inlineStr"/>
-      <c r="AL221" t="inlineStr"/>
-      <c r="AM221" t="inlineStr"/>
-      <c r="AN221" t="inlineStr"/>
-      <c r="AO221" t="inlineStr"/>
-      <c r="AP221" t="inlineStr"/>
-      <c r="AQ221" t="inlineStr"/>
-      <c r="AR221" t="inlineStr"/>
-      <c r="AS221" t="inlineStr"/>
-      <c r="AT221" t="inlineStr"/>
-      <c r="AU221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr"/>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Strebersdorf</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="b">
-        <v>0</v>
-      </c>
-      <c r="T222" t="inlineStr"/>
-      <c r="U222" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V222" t="inlineStr"/>
-      <c r="W222" t="inlineStr"/>
-      <c r="X222" t="inlineStr"/>
-      <c r="Y222" t="inlineStr"/>
-      <c r="Z222" t="inlineStr"/>
-      <c r="AA222" t="inlineStr"/>
-      <c r="AB222" t="inlineStr"/>
-      <c r="AC222" t="inlineStr"/>
-      <c r="AD222" t="inlineStr"/>
-      <c r="AE222" t="inlineStr"/>
-      <c r="AF222" t="inlineStr"/>
-      <c r="AG222" t="inlineStr"/>
-      <c r="AH222" t="inlineStr"/>
-      <c r="AI222" t="inlineStr"/>
-      <c r="AJ222" t="inlineStr"/>
-      <c r="AK222" t="inlineStr"/>
-      <c r="AL222" t="inlineStr"/>
-      <c r="AM222" t="inlineStr"/>
-      <c r="AN222" t="inlineStr"/>
-      <c r="AO222" t="inlineStr"/>
-      <c r="AP222" t="inlineStr"/>
-      <c r="AQ222" t="inlineStr"/>
-      <c r="AR222" t="inlineStr"/>
-      <c r="AS222" t="inlineStr"/>
-      <c r="AT222" t="inlineStr"/>
-      <c r="AU222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr"/>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Leopoldau</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="b">
-        <v>0</v>
-      </c>
-      <c r="T223" t="inlineStr"/>
-      <c r="U223" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V223" t="inlineStr"/>
-      <c r="W223" t="inlineStr"/>
-      <c r="X223" t="inlineStr"/>
-      <c r="Y223" t="inlineStr"/>
-      <c r="Z223" t="inlineStr"/>
-      <c r="AA223" t="inlineStr"/>
-      <c r="AB223" t="inlineStr"/>
-      <c r="AC223" t="inlineStr"/>
-      <c r="AD223" t="inlineStr"/>
-      <c r="AE223" t="inlineStr"/>
-      <c r="AF223" t="inlineStr"/>
-      <c r="AG223" t="inlineStr"/>
-      <c r="AH223" t="inlineStr"/>
-      <c r="AI223" t="inlineStr"/>
-      <c r="AJ223" t="inlineStr"/>
-      <c r="AK223" t="inlineStr"/>
-      <c r="AL223" t="inlineStr"/>
-      <c r="AM223" t="inlineStr"/>
-      <c r="AN223" t="inlineStr"/>
-      <c r="AO223" t="inlineStr"/>
-      <c r="AP223" t="inlineStr"/>
-      <c r="AQ223" t="inlineStr"/>
-      <c r="AR223" t="inlineStr"/>
-      <c r="AS223" t="inlineStr"/>
-      <c r="AT223" t="inlineStr"/>
-      <c r="AU223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr"/>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Jedlesee</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr"/>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="b">
-        <v>0</v>
-      </c>
-      <c r="T224" t="inlineStr"/>
-      <c r="U224" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V224" t="inlineStr"/>
-      <c r="W224" t="inlineStr"/>
-      <c r="X224" t="inlineStr"/>
-      <c r="Y224" t="inlineStr"/>
-      <c r="Z224" t="inlineStr"/>
-      <c r="AA224" t="inlineStr"/>
-      <c r="AB224" t="inlineStr"/>
-      <c r="AC224" t="inlineStr"/>
-      <c r="AD224" t="inlineStr"/>
-      <c r="AE224" t="inlineStr"/>
-      <c r="AF224" t="inlineStr"/>
-      <c r="AG224" t="inlineStr"/>
-      <c r="AH224" t="inlineStr"/>
-      <c r="AI224" t="inlineStr"/>
-      <c r="AJ224" t="inlineStr"/>
-      <c r="AK224" t="inlineStr"/>
-      <c r="AL224" t="inlineStr"/>
-      <c r="AM224" t="inlineStr"/>
-      <c r="AN224" t="inlineStr"/>
-      <c r="AO224" t="inlineStr"/>
-      <c r="AP224" t="inlineStr"/>
-      <c r="AQ224" t="inlineStr"/>
-      <c r="AR224" t="inlineStr"/>
-      <c r="AS224" t="inlineStr"/>
-      <c r="AT224" t="inlineStr"/>
-      <c r="AU224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr"/>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Dornbach</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>1170</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
-      <c r="N225" t="inlineStr"/>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="b">
-        <v>0</v>
-      </c>
-      <c r="T225" t="inlineStr"/>
-      <c r="U225" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V225" t="inlineStr"/>
-      <c r="W225" t="inlineStr"/>
-      <c r="X225" t="inlineStr"/>
-      <c r="Y225" t="inlineStr"/>
-      <c r="Z225" t="inlineStr"/>
-      <c r="AA225" t="inlineStr"/>
-      <c r="AB225" t="inlineStr"/>
-      <c r="AC225" t="inlineStr"/>
-      <c r="AD225" t="inlineStr"/>
-      <c r="AE225" t="inlineStr"/>
-      <c r="AF225" t="inlineStr"/>
-      <c r="AG225" t="inlineStr"/>
-      <c r="AH225" t="inlineStr"/>
-      <c r="AI225" t="inlineStr"/>
-      <c r="AJ225" t="inlineStr"/>
-      <c r="AK225" t="inlineStr"/>
-      <c r="AL225" t="inlineStr"/>
-      <c r="AM225" t="inlineStr"/>
-      <c r="AN225" t="inlineStr"/>
-      <c r="AO225" t="inlineStr"/>
-      <c r="AP225" t="inlineStr"/>
-      <c r="AQ225" t="inlineStr"/>
-      <c r="AR225" t="inlineStr"/>
-      <c r="AS225" t="inlineStr"/>
-      <c r="AT225" t="inlineStr"/>
-      <c r="AU225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr"/>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Leopoldau</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="b">
-        <v>0</v>
-      </c>
-      <c r="T226" t="inlineStr"/>
-      <c r="U226" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V226" t="inlineStr"/>
-      <c r="W226" t="inlineStr"/>
-      <c r="X226" t="inlineStr"/>
-      <c r="Y226" t="inlineStr"/>
-      <c r="Z226" t="inlineStr"/>
-      <c r="AA226" t="inlineStr"/>
-      <c r="AB226" t="inlineStr"/>
-      <c r="AC226" t="inlineStr"/>
-      <c r="AD226" t="inlineStr"/>
-      <c r="AE226" t="inlineStr"/>
-      <c r="AF226" t="inlineStr"/>
-      <c r="AG226" t="inlineStr"/>
-      <c r="AH226" t="inlineStr"/>
-      <c r="AI226" t="inlineStr"/>
-      <c r="AJ226" t="inlineStr"/>
-      <c r="AK226" t="inlineStr"/>
-      <c r="AL226" t="inlineStr"/>
-      <c r="AM226" t="inlineStr"/>
-      <c r="AN226" t="inlineStr"/>
-      <c r="AO226" t="inlineStr"/>
-      <c r="AP226" t="inlineStr"/>
-      <c r="AQ226" t="inlineStr"/>
-      <c r="AR226" t="inlineStr"/>
-      <c r="AS226" t="inlineStr"/>
-      <c r="AT226" t="inlineStr"/>
-      <c r="AU226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr"/>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Ober St.Veit</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr"/>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="b">
-        <v>0</v>
-      </c>
-      <c r="T227" t="inlineStr"/>
-      <c r="U227" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V227" t="inlineStr"/>
-      <c r="W227" t="inlineStr"/>
-      <c r="X227" t="inlineStr"/>
-      <c r="Y227" t="inlineStr"/>
-      <c r="Z227" t="inlineStr"/>
-      <c r="AA227" t="inlineStr"/>
-      <c r="AB227" t="inlineStr"/>
-      <c r="AC227" t="inlineStr"/>
-      <c r="AD227" t="inlineStr"/>
-      <c r="AE227" t="inlineStr"/>
-      <c r="AF227" t="inlineStr"/>
-      <c r="AG227" t="inlineStr"/>
-      <c r="AH227" t="inlineStr"/>
-      <c r="AI227" t="inlineStr"/>
-      <c r="AJ227" t="inlineStr"/>
-      <c r="AK227" t="inlineStr"/>
-      <c r="AL227" t="inlineStr"/>
-      <c r="AM227" t="inlineStr"/>
-      <c r="AN227" t="inlineStr"/>
-      <c r="AO227" t="inlineStr"/>
-      <c r="AP227" t="inlineStr"/>
-      <c r="AQ227" t="inlineStr"/>
-      <c r="AR227" t="inlineStr"/>
-      <c r="AS227" t="inlineStr"/>
-      <c r="AT227" t="inlineStr"/>
-      <c r="AU227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr"/>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Inzersdorf</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="b">
-        <v>0</v>
-      </c>
-      <c r="T228" t="inlineStr"/>
-      <c r="U228" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V228" t="inlineStr"/>
-      <c r="W228" t="inlineStr"/>
-      <c r="X228" t="inlineStr"/>
-      <c r="Y228" t="inlineStr"/>
-      <c r="Z228" t="inlineStr"/>
-      <c r="AA228" t="inlineStr"/>
-      <c r="AB228" t="inlineStr"/>
-      <c r="AC228" t="inlineStr"/>
-      <c r="AD228" t="inlineStr"/>
-      <c r="AE228" t="inlineStr"/>
-      <c r="AF228" t="inlineStr"/>
-      <c r="AG228" t="inlineStr"/>
-      <c r="AH228" t="inlineStr"/>
-      <c r="AI228" t="inlineStr"/>
-      <c r="AJ228" t="inlineStr"/>
-      <c r="AK228" t="inlineStr"/>
-      <c r="AL228" t="inlineStr"/>
-      <c r="AM228" t="inlineStr"/>
-      <c r="AN228" t="inlineStr"/>
-      <c r="AO228" t="inlineStr"/>
-      <c r="AP228" t="inlineStr"/>
-      <c r="AQ228" t="inlineStr"/>
-      <c r="AR228" t="inlineStr"/>
-      <c r="AS228" t="inlineStr"/>
-      <c r="AT228" t="inlineStr"/>
-      <c r="AU228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr"/>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Süßenbrunn</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="b">
-        <v>0</v>
-      </c>
-      <c r="T229" t="inlineStr"/>
-      <c r="U229" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V229" t="inlineStr"/>
-      <c r="W229" t="inlineStr"/>
-      <c r="X229" t="inlineStr"/>
-      <c r="Y229" t="inlineStr"/>
-      <c r="Z229" t="inlineStr"/>
-      <c r="AA229" t="inlineStr"/>
-      <c r="AB229" t="inlineStr"/>
-      <c r="AC229" t="inlineStr"/>
-      <c r="AD229" t="inlineStr"/>
-      <c r="AE229" t="inlineStr"/>
-      <c r="AF229" t="inlineStr"/>
-      <c r="AG229" t="inlineStr"/>
-      <c r="AH229" t="inlineStr"/>
-      <c r="AI229" t="inlineStr"/>
-      <c r="AJ229" t="inlineStr"/>
-      <c r="AK229" t="inlineStr"/>
-      <c r="AL229" t="inlineStr"/>
-      <c r="AM229" t="inlineStr"/>
-      <c r="AN229" t="inlineStr"/>
-      <c r="AO229" t="inlineStr"/>
-      <c r="AP229" t="inlineStr"/>
-      <c r="AQ229" t="inlineStr"/>
-      <c r="AR229" t="inlineStr"/>
-      <c r="AS229" t="inlineStr"/>
-      <c r="AT229" t="inlineStr"/>
-      <c r="AU229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="b">
-        <v>0</v>
-      </c>
-      <c r="T230" t="inlineStr"/>
-      <c r="U230" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V230" t="inlineStr"/>
-      <c r="W230" t="inlineStr"/>
-      <c r="X230" t="inlineStr"/>
-      <c r="Y230" t="inlineStr"/>
-      <c r="Z230" t="inlineStr"/>
-      <c r="AA230" t="inlineStr"/>
-      <c r="AB230" t="inlineStr"/>
-      <c r="AC230" t="inlineStr"/>
-      <c r="AD230" t="inlineStr"/>
-      <c r="AE230" t="inlineStr"/>
-      <c r="AF230" t="inlineStr"/>
-      <c r="AG230" t="inlineStr"/>
-      <c r="AH230" t="inlineStr"/>
-      <c r="AI230" t="inlineStr"/>
-      <c r="AJ230" t="inlineStr"/>
-      <c r="AK230" t="inlineStr"/>
-      <c r="AL230" t="inlineStr"/>
-      <c r="AM230" t="inlineStr"/>
-      <c r="AN230" t="inlineStr"/>
-      <c r="AO230" t="inlineStr"/>
-      <c r="AP230" t="inlineStr"/>
-      <c r="AQ230" t="inlineStr"/>
-      <c r="AR230" t="inlineStr"/>
-      <c r="AS230" t="inlineStr"/>
-      <c r="AT230" t="inlineStr"/>
-      <c r="AU230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr"/>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Alsergrund</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>1090</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="b">
-        <v>0</v>
-      </c>
-      <c r="T231" t="inlineStr"/>
-      <c r="U231" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V231" t="inlineStr"/>
-      <c r="W231" t="inlineStr"/>
-      <c r="X231" t="inlineStr"/>
-      <c r="Y231" t="inlineStr"/>
-      <c r="Z231" t="inlineStr"/>
-      <c r="AA231" t="inlineStr"/>
-      <c r="AB231" t="inlineStr"/>
-      <c r="AC231" t="inlineStr"/>
-      <c r="AD231" t="inlineStr"/>
-      <c r="AE231" t="inlineStr"/>
-      <c r="AF231" t="inlineStr"/>
-      <c r="AG231" t="inlineStr"/>
-      <c r="AH231" t="inlineStr"/>
-      <c r="AI231" t="inlineStr"/>
-      <c r="AJ231" t="inlineStr"/>
-      <c r="AK231" t="inlineStr"/>
-      <c r="AL231" t="inlineStr"/>
-      <c r="AM231" t="inlineStr"/>
-      <c r="AN231" t="inlineStr"/>
-      <c r="AO231" t="inlineStr"/>
-      <c r="AP231" t="inlineStr"/>
-      <c r="AQ231" t="inlineStr"/>
-      <c r="AR231" t="inlineStr"/>
-      <c r="AS231" t="inlineStr"/>
-      <c r="AT231" t="inlineStr"/>
-      <c r="AU231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr"/>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Floridsdorf</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr"/>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="b">
-        <v>0</v>
-      </c>
-      <c r="T232" t="inlineStr"/>
-      <c r="U232" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V232" t="inlineStr"/>
-      <c r="W232" t="inlineStr"/>
-      <c r="X232" t="inlineStr"/>
-      <c r="Y232" t="inlineStr"/>
-      <c r="Z232" t="inlineStr"/>
-      <c r="AA232" t="inlineStr"/>
-      <c r="AB232" t="inlineStr"/>
-      <c r="AC232" t="inlineStr"/>
-      <c r="AD232" t="inlineStr"/>
-      <c r="AE232" t="inlineStr"/>
-      <c r="AF232" t="inlineStr"/>
-      <c r="AG232" t="inlineStr"/>
-      <c r="AH232" t="inlineStr"/>
-      <c r="AI232" t="inlineStr"/>
-      <c r="AJ232" t="inlineStr"/>
-      <c r="AK232" t="inlineStr"/>
-      <c r="AL232" t="inlineStr"/>
-      <c r="AM232" t="inlineStr"/>
-      <c r="AN232" t="inlineStr"/>
-      <c r="AO232" t="inlineStr"/>
-      <c r="AP232" t="inlineStr"/>
-      <c r="AQ232" t="inlineStr"/>
-      <c r="AR232" t="inlineStr"/>
-      <c r="AS232" t="inlineStr"/>
-      <c r="AT232" t="inlineStr"/>
-      <c r="AU232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr"/>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Ottakring</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>1160</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Kreitnergasse</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr"/>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="b">
-        <v>0</v>
-      </c>
-      <c r="T233" t="inlineStr"/>
-      <c r="U233" t="inlineStr">
-        <is>
-          <t>Abbruchobjekt</t>
-        </is>
-      </c>
-      <c r="V233" t="inlineStr"/>
-      <c r="W233" t="inlineStr"/>
-      <c r="X233" t="inlineStr"/>
-      <c r="Y233" t="inlineStr"/>
-      <c r="Z233" t="inlineStr"/>
-      <c r="AA233" t="inlineStr"/>
-      <c r="AB233" t="inlineStr"/>
-      <c r="AC233" t="inlineStr"/>
-      <c r="AD233" t="n">
-        <v>660000</v>
-      </c>
-      <c r="AE233" t="n">
-        <v>1093.699</v>
-      </c>
-      <c r="AF233" t="inlineStr"/>
-      <c r="AG233" t="inlineStr"/>
-      <c r="AH233" t="inlineStr"/>
-      <c r="AI233" t="inlineStr"/>
-      <c r="AJ233" t="inlineStr"/>
-      <c r="AK233" t="inlineStr"/>
-      <c r="AL233" t="inlineStr"/>
-      <c r="AM233" t="inlineStr"/>
-      <c r="AN233" t="inlineStr"/>
-      <c r="AO233" t="inlineStr"/>
-      <c r="AP233" t="inlineStr"/>
-      <c r="AQ233" t="inlineStr"/>
-      <c r="AR233" t="inlineStr"/>
-      <c r="AS233" t="inlineStr"/>
-      <c r="AT233" t="inlineStr"/>
-      <c r="AU233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr"/>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Rosenberg</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="b">
-        <v>0</v>
-      </c>
-      <c r="T234" t="inlineStr"/>
-      <c r="U234" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V234" t="inlineStr"/>
-      <c r="W234" t="inlineStr"/>
-      <c r="X234" t="inlineStr"/>
-      <c r="Y234" t="inlineStr"/>
-      <c r="Z234" t="inlineStr"/>
-      <c r="AA234" t="inlineStr"/>
-      <c r="AB234" t="inlineStr"/>
-      <c r="AC234" t="inlineStr"/>
-      <c r="AD234" t="inlineStr"/>
-      <c r="AE234" t="inlineStr"/>
-      <c r="AF234" t="inlineStr"/>
-      <c r="AG234" t="inlineStr"/>
-      <c r="AH234" t="inlineStr"/>
-      <c r="AI234" t="inlineStr"/>
-      <c r="AJ234" t="inlineStr"/>
-      <c r="AK234" t="inlineStr"/>
-      <c r="AL234" t="inlineStr"/>
-      <c r="AM234" t="inlineStr"/>
-      <c r="AN234" t="inlineStr"/>
-      <c r="AO234" t="inlineStr"/>
-      <c r="AP234" t="inlineStr"/>
-      <c r="AQ234" t="inlineStr"/>
-      <c r="AR234" t="inlineStr"/>
-      <c r="AS234" t="inlineStr"/>
-      <c r="AT234" t="inlineStr"/>
-      <c r="AU234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr"/>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Mauer</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr"/>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="b">
-        <v>0</v>
-      </c>
-      <c r="T235" t="inlineStr"/>
-      <c r="U235" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V235" t="inlineStr"/>
-      <c r="W235" t="inlineStr"/>
-      <c r="X235" t="inlineStr"/>
-      <c r="Y235" t="inlineStr"/>
-      <c r="Z235" t="inlineStr"/>
-      <c r="AA235" t="inlineStr"/>
-      <c r="AB235" t="inlineStr"/>
-      <c r="AC235" t="inlineStr"/>
-      <c r="AD235" t="inlineStr"/>
-      <c r="AE235" t="inlineStr"/>
-      <c r="AF235" t="inlineStr"/>
-      <c r="AG235" t="inlineStr"/>
-      <c r="AH235" t="inlineStr"/>
-      <c r="AI235" t="inlineStr"/>
-      <c r="AJ235" t="inlineStr"/>
-      <c r="AK235" t="inlineStr"/>
-      <c r="AL235" t="inlineStr"/>
-      <c r="AM235" t="inlineStr"/>
-      <c r="AN235" t="inlineStr"/>
-      <c r="AO235" t="inlineStr"/>
-      <c r="AP235" t="inlineStr"/>
-      <c r="AQ235" t="inlineStr"/>
-      <c r="AR235" t="inlineStr"/>
-      <c r="AS235" t="inlineStr"/>
-      <c r="AT235" t="inlineStr"/>
-      <c r="AU235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr"/>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Neubau</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>1070</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr"/>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="b">
-        <v>0</v>
-      </c>
-      <c r="T236" t="inlineStr"/>
-      <c r="U236" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V236" t="inlineStr"/>
-      <c r="W236" t="inlineStr"/>
-      <c r="X236" t="inlineStr"/>
-      <c r="Y236" t="inlineStr"/>
-      <c r="Z236" t="inlineStr"/>
-      <c r="AA236" t="inlineStr"/>
-      <c r="AB236" t="inlineStr"/>
-      <c r="AC236" t="inlineStr"/>
-      <c r="AD236" t="inlineStr"/>
-      <c r="AE236" t="inlineStr"/>
-      <c r="AF236" t="inlineStr"/>
-      <c r="AG236" t="inlineStr"/>
-      <c r="AH236" t="inlineStr"/>
-      <c r="AI236" t="inlineStr"/>
-      <c r="AJ236" t="inlineStr"/>
-      <c r="AK236" t="inlineStr"/>
-      <c r="AL236" t="inlineStr"/>
-      <c r="AM236" t="inlineStr"/>
-      <c r="AN236" t="inlineStr"/>
-      <c r="AO236" t="inlineStr"/>
-      <c r="AP236" t="inlineStr"/>
-      <c r="AQ236" t="inlineStr"/>
-      <c r="AR236" t="inlineStr"/>
-      <c r="AS236" t="inlineStr"/>
-      <c r="AT236" t="inlineStr"/>
-      <c r="AU236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr"/>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Aspern</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Hausfeldstraße</t>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr"/>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="b">
-        <v>1</v>
-      </c>
-      <c r="T237" t="inlineStr"/>
-      <c r="U237" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V237" t="inlineStr"/>
-      <c r="W237" t="inlineStr"/>
-      <c r="X237" t="inlineStr"/>
-      <c r="Y237" t="inlineStr"/>
-      <c r="Z237" t="inlineStr"/>
-      <c r="AA237" t="inlineStr"/>
-      <c r="AB237" t="inlineStr"/>
-      <c r="AC237" t="inlineStr"/>
-      <c r="AD237" t="n">
-        <v>7515400</v>
-      </c>
-      <c r="AE237" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF237" t="inlineStr"/>
-      <c r="AG237" t="inlineStr"/>
-      <c r="AH237" t="inlineStr"/>
-      <c r="AI237" t="inlineStr"/>
-      <c r="AJ237" t="inlineStr"/>
-      <c r="AK237" t="inlineStr"/>
-      <c r="AL237" t="inlineStr"/>
-      <c r="AM237" t="inlineStr"/>
-      <c r="AN237" t="inlineStr"/>
-      <c r="AO237" t="inlineStr"/>
-      <c r="AP237" t="inlineStr"/>
-      <c r="AQ237" t="inlineStr"/>
-      <c r="AR237" t="inlineStr"/>
-      <c r="AS237" t="inlineStr"/>
-      <c r="AT237" t="inlineStr"/>
-      <c r="AU237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr"/>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Inzersdorf</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr"/>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="b">
-        <v>0</v>
-      </c>
-      <c r="T238" t="inlineStr"/>
-      <c r="U238" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V238" t="inlineStr"/>
-      <c r="W238" t="inlineStr"/>
-      <c r="X238" t="inlineStr"/>
-      <c r="Y238" t="inlineStr"/>
-      <c r="Z238" t="inlineStr"/>
-      <c r="AA238" t="inlineStr"/>
-      <c r="AB238" t="inlineStr"/>
-      <c r="AC238" t="inlineStr"/>
-      <c r="AD238" t="inlineStr"/>
-      <c r="AE238" t="inlineStr"/>
-      <c r="AF238" t="inlineStr"/>
-      <c r="AG238" t="inlineStr"/>
-      <c r="AH238" t="inlineStr"/>
-      <c r="AI238" t="inlineStr"/>
-      <c r="AJ238" t="inlineStr"/>
-      <c r="AK238" t="inlineStr"/>
-      <c r="AL238" t="inlineStr"/>
-      <c r="AM238" t="inlineStr"/>
-      <c r="AN238" t="inlineStr"/>
-      <c r="AO238" t="inlineStr"/>
-      <c r="AP238" t="inlineStr"/>
-      <c r="AQ238" t="inlineStr"/>
-      <c r="AR238" t="inlineStr"/>
-      <c r="AS238" t="inlineStr"/>
-      <c r="AT238" t="inlineStr"/>
-      <c r="AU238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr"/>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Hütteldorf</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>1140</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr"/>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="b">
-        <v>0</v>
-      </c>
-      <c r="T239" t="inlineStr"/>
-      <c r="U239" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V239" t="inlineStr"/>
-      <c r="W239" t="inlineStr"/>
-      <c r="X239" t="inlineStr"/>
-      <c r="Y239" t="inlineStr"/>
-      <c r="Z239" t="inlineStr"/>
-      <c r="AA239" t="inlineStr"/>
-      <c r="AB239" t="inlineStr"/>
-      <c r="AC239" t="inlineStr"/>
-      <c r="AD239" t="inlineStr"/>
-      <c r="AE239" t="inlineStr"/>
-      <c r="AF239" t="inlineStr"/>
-      <c r="AG239" t="inlineStr"/>
-      <c r="AH239" t="inlineStr"/>
-      <c r="AI239" t="inlineStr"/>
-      <c r="AJ239" t="inlineStr"/>
-      <c r="AK239" t="inlineStr"/>
-      <c r="AL239" t="inlineStr"/>
-      <c r="AM239" t="inlineStr"/>
-      <c r="AN239" t="inlineStr"/>
-      <c r="AO239" t="inlineStr"/>
-      <c r="AP239" t="inlineStr"/>
-      <c r="AQ239" t="inlineStr"/>
-      <c r="AR239" t="inlineStr"/>
-      <c r="AS239" t="inlineStr"/>
-      <c r="AT239" t="inlineStr"/>
-      <c r="AU239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr"/>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Neustift am Walde</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>1190</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="inlineStr"/>
-      <c r="N240" t="inlineStr"/>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="b">
-        <v>0</v>
-      </c>
-      <c r="T240" t="inlineStr"/>
-      <c r="U240" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V240" t="inlineStr"/>
-      <c r="W240" t="inlineStr"/>
-      <c r="X240" t="inlineStr"/>
-      <c r="Y240" t="inlineStr"/>
-      <c r="Z240" t="inlineStr"/>
-      <c r="AA240" t="inlineStr"/>
-      <c r="AB240" t="inlineStr"/>
-      <c r="AC240" t="inlineStr"/>
-      <c r="AD240" t="inlineStr"/>
-      <c r="AE240" t="inlineStr"/>
-      <c r="AF240" t="inlineStr"/>
-      <c r="AG240" t="inlineStr"/>
-      <c r="AH240" t="inlineStr"/>
-      <c r="AI240" t="inlineStr"/>
-      <c r="AJ240" t="inlineStr"/>
-      <c r="AK240" t="inlineStr"/>
-      <c r="AL240" t="inlineStr"/>
-      <c r="AM240" t="inlineStr"/>
-      <c r="AN240" t="inlineStr"/>
-      <c r="AO240" t="inlineStr"/>
-      <c r="AP240" t="inlineStr"/>
-      <c r="AQ240" t="inlineStr"/>
-      <c r="AR240" t="inlineStr"/>
-      <c r="AS240" t="inlineStr"/>
-      <c r="AT240" t="inlineStr"/>
-      <c r="AU240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr"/>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Simmering</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="inlineStr"/>
-      <c r="N241" t="inlineStr"/>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="b">
-        <v>0</v>
-      </c>
-      <c r="T241" t="inlineStr"/>
-      <c r="U241" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V241" t="inlineStr"/>
-      <c r="W241" t="inlineStr"/>
-      <c r="X241" t="inlineStr"/>
-      <c r="Y241" t="inlineStr"/>
-      <c r="Z241" t="inlineStr"/>
-      <c r="AA241" t="inlineStr"/>
-      <c r="AB241" t="inlineStr"/>
-      <c r="AC241" t="inlineStr"/>
-      <c r="AD241" t="inlineStr"/>
-      <c r="AE241" t="inlineStr"/>
-      <c r="AF241" t="inlineStr"/>
-      <c r="AG241" t="inlineStr"/>
-      <c r="AH241" t="inlineStr"/>
-      <c r="AI241" t="inlineStr"/>
-      <c r="AJ241" t="inlineStr"/>
-      <c r="AK241" t="inlineStr"/>
-      <c r="AL241" t="inlineStr"/>
-      <c r="AM241" t="inlineStr"/>
-      <c r="AN241" t="inlineStr"/>
-      <c r="AO241" t="inlineStr"/>
-      <c r="AP241" t="inlineStr"/>
-      <c r="AQ241" t="inlineStr"/>
-      <c r="AR241" t="inlineStr"/>
-      <c r="AS241" t="inlineStr"/>
-      <c r="AT241" t="inlineStr"/>
-      <c r="AU241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr"/>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Leopoldau</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Gusengasse</t>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>KV-Entwurf</t>
-        </is>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
-      <c r="N242" t="inlineStr"/>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="b">
-        <v>0</v>
-      </c>
-      <c r="T242" t="inlineStr"/>
-      <c r="U242" t="inlineStr">
-        <is>
-          <t>Abbruchobjekt</t>
-        </is>
-      </c>
-      <c r="V242" t="inlineStr"/>
-      <c r="W242" t="inlineStr"/>
-      <c r="X242" t="inlineStr"/>
-      <c r="Y242" t="inlineStr"/>
-      <c r="Z242" t="inlineStr"/>
-      <c r="AA242" t="inlineStr"/>
-      <c r="AB242" t="inlineStr"/>
-      <c r="AC242" t="inlineStr"/>
-      <c r="AD242" t="n">
-        <v>100000</v>
-      </c>
-      <c r="AE242" t="n">
-        <v>82.44023</v>
-      </c>
-      <c r="AF242" t="inlineStr"/>
-      <c r="AG242" t="inlineStr"/>
-      <c r="AH242" t="inlineStr"/>
-      <c r="AI242" t="inlineStr"/>
-      <c r="AJ242" t="inlineStr"/>
-      <c r="AK242" t="inlineStr"/>
-      <c r="AL242" t="inlineStr"/>
-      <c r="AM242" t="inlineStr"/>
-      <c r="AN242" t="inlineStr"/>
-      <c r="AO242" t="inlineStr"/>
-      <c r="AP242" t="inlineStr"/>
-      <c r="AQ242" t="inlineStr"/>
-      <c r="AR242" t="inlineStr"/>
-      <c r="AS242" t="inlineStr"/>
-      <c r="AT242" t="inlineStr"/>
-      <c r="AU242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr"/>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Favoriten</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr"/>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="b">
-        <v>0</v>
-      </c>
-      <c r="T243" t="inlineStr"/>
-      <c r="U243" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V243" t="inlineStr"/>
-      <c r="W243" t="inlineStr"/>
-      <c r="X243" t="inlineStr"/>
-      <c r="Y243" t="inlineStr"/>
-      <c r="Z243" t="inlineStr"/>
-      <c r="AA243" t="inlineStr"/>
-      <c r="AB243" t="inlineStr"/>
-      <c r="AC243" t="inlineStr"/>
-      <c r="AD243" t="inlineStr"/>
-      <c r="AE243" t="inlineStr"/>
-      <c r="AF243" t="inlineStr"/>
-      <c r="AG243" t="inlineStr"/>
-      <c r="AH243" t="inlineStr"/>
-      <c r="AI243" t="inlineStr"/>
-      <c r="AJ243" t="inlineStr"/>
-      <c r="AK243" t="inlineStr"/>
-      <c r="AL243" t="inlineStr"/>
-      <c r="AM243" t="inlineStr"/>
-      <c r="AN243" t="inlineStr"/>
-      <c r="AO243" t="inlineStr"/>
-      <c r="AP243" t="inlineStr"/>
-      <c r="AQ243" t="inlineStr"/>
-      <c r="AR243" t="inlineStr"/>
-      <c r="AS243" t="inlineStr"/>
-      <c r="AT243" t="inlineStr"/>
-      <c r="AU243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr"/>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Josefstadt</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>1080</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr"/>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="b">
-        <v>0</v>
-      </c>
-      <c r="T244" t="inlineStr"/>
-      <c r="U244" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V244" t="inlineStr"/>
-      <c r="W244" t="inlineStr"/>
-      <c r="X244" t="inlineStr"/>
-      <c r="Y244" t="inlineStr"/>
-      <c r="Z244" t="inlineStr"/>
-      <c r="AA244" t="inlineStr"/>
-      <c r="AB244" t="inlineStr"/>
-      <c r="AC244" t="inlineStr"/>
-      <c r="AD244" t="inlineStr"/>
-      <c r="AE244" t="inlineStr"/>
-      <c r="AF244" t="inlineStr"/>
-      <c r="AG244" t="inlineStr"/>
-      <c r="AH244" t="inlineStr"/>
-      <c r="AI244" t="inlineStr"/>
-      <c r="AJ244" t="inlineStr"/>
-      <c r="AK244" t="inlineStr"/>
-      <c r="AL244" t="inlineStr"/>
-      <c r="AM244" t="inlineStr"/>
-      <c r="AN244" t="inlineStr"/>
-      <c r="AO244" t="inlineStr"/>
-      <c r="AP244" t="inlineStr"/>
-      <c r="AQ244" t="inlineStr"/>
-      <c r="AR244" t="inlineStr"/>
-      <c r="AS244" t="inlineStr"/>
-      <c r="AT244" t="inlineStr"/>
-      <c r="AU244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr"/>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Oberlaa Land</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="b">
-        <v>0</v>
-      </c>
-      <c r="T245" t="inlineStr"/>
-      <c r="U245" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V245" t="inlineStr"/>
-      <c r="W245" t="inlineStr"/>
-      <c r="X245" t="inlineStr"/>
-      <c r="Y245" t="inlineStr"/>
-      <c r="Z245" t="inlineStr"/>
-      <c r="AA245" t="inlineStr"/>
-      <c r="AB245" t="inlineStr"/>
-      <c r="AC245" t="inlineStr"/>
-      <c r="AD245" t="inlineStr"/>
-      <c r="AE245" t="inlineStr"/>
-      <c r="AF245" t="inlineStr"/>
-      <c r="AG245" t="inlineStr"/>
-      <c r="AH245" t="inlineStr"/>
-      <c r="AI245" t="inlineStr"/>
-      <c r="AJ245" t="inlineStr"/>
-      <c r="AK245" t="inlineStr"/>
-      <c r="AL245" t="inlineStr"/>
-      <c r="AM245" t="inlineStr"/>
-      <c r="AN245" t="inlineStr"/>
-      <c r="AO245" t="inlineStr"/>
-      <c r="AP245" t="inlineStr"/>
-      <c r="AQ245" t="inlineStr"/>
-      <c r="AR245" t="inlineStr"/>
-      <c r="AS245" t="inlineStr"/>
-      <c r="AT245" t="inlineStr"/>
-      <c r="AU245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr"/>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Oberlaa Land</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>1100</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="b">
-        <v>0</v>
-      </c>
-      <c r="T246" t="inlineStr"/>
-      <c r="U246" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V246" t="inlineStr"/>
-      <c r="W246" t="inlineStr"/>
-      <c r="X246" t="inlineStr"/>
-      <c r="Y246" t="inlineStr"/>
-      <c r="Z246" t="inlineStr"/>
-      <c r="AA246" t="inlineStr"/>
-      <c r="AB246" t="inlineStr"/>
-      <c r="AC246" t="inlineStr"/>
-      <c r="AD246" t="inlineStr"/>
-      <c r="AE246" t="inlineStr"/>
-      <c r="AF246" t="inlineStr"/>
-      <c r="AG246" t="inlineStr"/>
-      <c r="AH246" t="inlineStr"/>
-      <c r="AI246" t="inlineStr"/>
-      <c r="AJ246" t="inlineStr"/>
-      <c r="AK246" t="inlineStr"/>
-      <c r="AL246" t="inlineStr"/>
-      <c r="AM246" t="inlineStr"/>
-      <c r="AN246" t="inlineStr"/>
-      <c r="AO246" t="inlineStr"/>
-      <c r="AP246" t="inlineStr"/>
-      <c r="AQ246" t="inlineStr"/>
-      <c r="AR246" t="inlineStr"/>
-      <c r="AS246" t="inlineStr"/>
-      <c r="AT246" t="inlineStr"/>
-      <c r="AU246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr"/>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Inzersdorf Stadt</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="b">
-        <v>0</v>
-      </c>
-      <c r="T247" t="inlineStr"/>
-      <c r="U247" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V247" t="inlineStr"/>
-      <c r="W247" t="inlineStr"/>
-      <c r="X247" t="inlineStr"/>
-      <c r="Y247" t="inlineStr"/>
-      <c r="Z247" t="inlineStr"/>
-      <c r="AA247" t="inlineStr"/>
-      <c r="AB247" t="inlineStr"/>
-      <c r="AC247" t="inlineStr"/>
-      <c r="AD247" t="inlineStr"/>
-      <c r="AE247" t="inlineStr"/>
-      <c r="AF247" t="inlineStr"/>
-      <c r="AG247" t="inlineStr"/>
-      <c r="AH247" t="inlineStr"/>
-      <c r="AI247" t="inlineStr"/>
-      <c r="AJ247" t="inlineStr"/>
-      <c r="AK247" t="inlineStr"/>
-      <c r="AL247" t="inlineStr"/>
-      <c r="AM247" t="inlineStr"/>
-      <c r="AN247" t="inlineStr"/>
-      <c r="AO247" t="inlineStr"/>
-      <c r="AP247" t="inlineStr"/>
-      <c r="AQ247" t="inlineStr"/>
-      <c r="AR247" t="inlineStr"/>
-      <c r="AS247" t="inlineStr"/>
-      <c r="AT247" t="inlineStr"/>
-      <c r="AU247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr"/>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Alsergrund</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>1090</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr"/>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="b">
-        <v>0</v>
-      </c>
-      <c r="T248" t="inlineStr"/>
-      <c r="U248" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V248" t="inlineStr"/>
-      <c r="W248" t="inlineStr"/>
-      <c r="X248" t="inlineStr"/>
-      <c r="Y248" t="inlineStr"/>
-      <c r="Z248" t="inlineStr"/>
-      <c r="AA248" t="inlineStr"/>
-      <c r="AB248" t="inlineStr"/>
-      <c r="AC248" t="inlineStr"/>
-      <c r="AD248" t="inlineStr"/>
-      <c r="AE248" t="inlineStr"/>
-      <c r="AF248" t="inlineStr"/>
-      <c r="AG248" t="inlineStr"/>
-      <c r="AH248" t="inlineStr"/>
-      <c r="AI248" t="inlineStr"/>
-      <c r="AJ248" t="inlineStr"/>
-      <c r="AK248" t="inlineStr"/>
-      <c r="AL248" t="inlineStr"/>
-      <c r="AM248" t="inlineStr"/>
-      <c r="AN248" t="inlineStr"/>
-      <c r="AO248" t="inlineStr"/>
-      <c r="AP248" t="inlineStr"/>
-      <c r="AQ248" t="inlineStr"/>
-      <c r="AR248" t="inlineStr"/>
-      <c r="AS248" t="inlineStr"/>
-      <c r="AT248" t="inlineStr"/>
-      <c r="AU248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr"/>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Rudolfsheim</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
-      <c r="N249" t="inlineStr"/>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="b">
-        <v>0</v>
-      </c>
-      <c r="T249" t="inlineStr"/>
-      <c r="U249" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V249" t="inlineStr"/>
-      <c r="W249" t="inlineStr"/>
-      <c r="X249" t="inlineStr"/>
-      <c r="Y249" t="inlineStr"/>
-      <c r="Z249" t="inlineStr"/>
-      <c r="AA249" t="inlineStr"/>
-      <c r="AB249" t="inlineStr"/>
-      <c r="AC249" t="inlineStr"/>
-      <c r="AD249" t="inlineStr"/>
-      <c r="AE249" t="inlineStr"/>
-      <c r="AF249" t="inlineStr"/>
-      <c r="AG249" t="inlineStr"/>
-      <c r="AH249" t="inlineStr"/>
-      <c r="AI249" t="inlineStr"/>
-      <c r="AJ249" t="inlineStr"/>
-      <c r="AK249" t="inlineStr"/>
-      <c r="AL249" t="inlineStr"/>
-      <c r="AM249" t="inlineStr"/>
-      <c r="AN249" t="inlineStr"/>
-      <c r="AO249" t="inlineStr"/>
-      <c r="AP249" t="inlineStr"/>
-      <c r="AQ249" t="inlineStr"/>
-      <c r="AR249" t="inlineStr"/>
-      <c r="AS249" t="inlineStr"/>
-      <c r="AT249" t="inlineStr"/>
-      <c r="AU249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr"/>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Speising</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="inlineStr"/>
-      <c r="N250" t="inlineStr"/>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="b">
-        <v>0</v>
-      </c>
-      <c r="T250" t="inlineStr"/>
-      <c r="U250" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V250" t="inlineStr"/>
-      <c r="W250" t="inlineStr"/>
-      <c r="X250" t="inlineStr"/>
-      <c r="Y250" t="inlineStr"/>
-      <c r="Z250" t="inlineStr"/>
-      <c r="AA250" t="inlineStr"/>
-      <c r="AB250" t="inlineStr"/>
-      <c r="AC250" t="inlineStr"/>
-      <c r="AD250" t="inlineStr"/>
-      <c r="AE250" t="inlineStr"/>
-      <c r="AF250" t="inlineStr"/>
-      <c r="AG250" t="inlineStr"/>
-      <c r="AH250" t="inlineStr"/>
-      <c r="AI250" t="inlineStr"/>
-      <c r="AJ250" t="inlineStr"/>
-      <c r="AK250" t="inlineStr"/>
-      <c r="AL250" t="inlineStr"/>
-      <c r="AM250" t="inlineStr"/>
-      <c r="AN250" t="inlineStr"/>
-      <c r="AO250" t="inlineStr"/>
-      <c r="AP250" t="inlineStr"/>
-      <c r="AQ250" t="inlineStr"/>
-      <c r="AR250" t="inlineStr"/>
-      <c r="AS250" t="inlineStr"/>
-      <c r="AT250" t="inlineStr"/>
-      <c r="AU250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr"/>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Simmering</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>1110</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
-      <c r="N251" t="inlineStr"/>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="b">
-        <v>0</v>
-      </c>
-      <c r="T251" t="inlineStr"/>
-      <c r="U251" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V251" t="inlineStr"/>
-      <c r="W251" t="inlineStr"/>
-      <c r="X251" t="inlineStr"/>
-      <c r="Y251" t="inlineStr"/>
-      <c r="Z251" t="inlineStr"/>
-      <c r="AA251" t="inlineStr"/>
-      <c r="AB251" t="inlineStr"/>
-      <c r="AC251" t="inlineStr"/>
-      <c r="AD251" t="inlineStr"/>
-      <c r="AE251" t="inlineStr"/>
-      <c r="AF251" t="inlineStr"/>
-      <c r="AG251" t="inlineStr"/>
-      <c r="AH251" t="inlineStr"/>
-      <c r="AI251" t="inlineStr"/>
-      <c r="AJ251" t="inlineStr"/>
-      <c r="AK251" t="inlineStr"/>
-      <c r="AL251" t="inlineStr"/>
-      <c r="AM251" t="inlineStr"/>
-      <c r="AN251" t="inlineStr"/>
-      <c r="AO251" t="inlineStr"/>
-      <c r="AP251" t="inlineStr"/>
-      <c r="AQ251" t="inlineStr"/>
-      <c r="AR251" t="inlineStr"/>
-      <c r="AS251" t="inlineStr"/>
-      <c r="AT251" t="inlineStr"/>
-      <c r="AU251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr"/>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Hütteldorf</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>1140</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
-        <is>
-          <t>Kometengasse</t>
-        </is>
-      </c>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr"/>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="b">
-        <v>0</v>
-      </c>
-      <c r="T252" t="inlineStr"/>
-      <c r="U252" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V252" t="inlineStr"/>
-      <c r="W252" t="inlineStr"/>
-      <c r="X252" t="inlineStr"/>
-      <c r="Y252" t="inlineStr"/>
-      <c r="Z252" t="inlineStr"/>
-      <c r="AA252" t="inlineStr"/>
-      <c r="AB252" t="inlineStr"/>
-      <c r="AC252" t="inlineStr"/>
-      <c r="AD252" t="inlineStr"/>
-      <c r="AE252" t="inlineStr"/>
-      <c r="AF252" t="inlineStr"/>
-      <c r="AG252" t="inlineStr"/>
-      <c r="AH252" t="inlineStr"/>
-      <c r="AI252" t="inlineStr"/>
-      <c r="AJ252" t="inlineStr"/>
-      <c r="AK252" t="inlineStr"/>
-      <c r="AL252" t="inlineStr"/>
-      <c r="AM252" t="inlineStr"/>
-      <c r="AN252" t="inlineStr"/>
-      <c r="AO252" t="inlineStr"/>
-      <c r="AP252" t="inlineStr"/>
-      <c r="AQ252" t="inlineStr"/>
-      <c r="AR252" t="inlineStr"/>
-      <c r="AS252" t="inlineStr"/>
-      <c r="AT252" t="inlineStr"/>
-      <c r="AU252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr"/>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Margarethen</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="b">
-        <v>0</v>
-      </c>
-      <c r="T253" t="inlineStr"/>
-      <c r="U253" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V253" t="inlineStr"/>
-      <c r="W253" t="inlineStr"/>
-      <c r="X253" t="inlineStr"/>
-      <c r="Y253" t="inlineStr"/>
-      <c r="Z253" t="inlineStr"/>
-      <c r="AA253" t="inlineStr"/>
-      <c r="AB253" t="inlineStr"/>
-      <c r="AC253" t="inlineStr"/>
-      <c r="AD253" t="inlineStr"/>
-      <c r="AE253" t="inlineStr"/>
-      <c r="AF253" t="inlineStr"/>
-      <c r="AG253" t="inlineStr"/>
-      <c r="AH253" t="inlineStr"/>
-      <c r="AI253" t="inlineStr"/>
-      <c r="AJ253" t="inlineStr"/>
-      <c r="AK253" t="inlineStr"/>
-      <c r="AL253" t="inlineStr"/>
-      <c r="AM253" t="inlineStr"/>
-      <c r="AN253" t="inlineStr"/>
-      <c r="AO253" t="inlineStr"/>
-      <c r="AP253" t="inlineStr"/>
-      <c r="AQ253" t="inlineStr"/>
-      <c r="AR253" t="inlineStr"/>
-      <c r="AS253" t="inlineStr"/>
-      <c r="AT253" t="inlineStr"/>
-      <c r="AU253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr"/>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Fünfhaus</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>1150</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="inlineStr"/>
-      <c r="N254" t="inlineStr"/>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
-      <c r="Q254" t="inlineStr"/>
-      <c r="R254" t="inlineStr"/>
-      <c r="S254" t="b">
-        <v>0</v>
-      </c>
-      <c r="T254" t="inlineStr"/>
-      <c r="U254" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V254" t="inlineStr"/>
-      <c r="W254" t="inlineStr"/>
-      <c r="X254" t="inlineStr"/>
-      <c r="Y254" t="inlineStr"/>
-      <c r="Z254" t="inlineStr"/>
-      <c r="AA254" t="inlineStr"/>
-      <c r="AB254" t="inlineStr"/>
-      <c r="AC254" t="inlineStr"/>
-      <c r="AD254" t="inlineStr"/>
-      <c r="AE254" t="inlineStr"/>
-      <c r="AF254" t="inlineStr"/>
-      <c r="AG254" t="inlineStr"/>
-      <c r="AH254" t="inlineStr"/>
-      <c r="AI254" t="inlineStr"/>
-      <c r="AJ254" t="inlineStr"/>
-      <c r="AK254" t="inlineStr"/>
-      <c r="AL254" t="inlineStr"/>
-      <c r="AM254" t="inlineStr"/>
-      <c r="AN254" t="inlineStr"/>
-      <c r="AO254" t="inlineStr"/>
-      <c r="AP254" t="inlineStr"/>
-      <c r="AQ254" t="inlineStr"/>
-      <c r="AR254" t="inlineStr"/>
-      <c r="AS254" t="inlineStr"/>
-      <c r="AT254" t="inlineStr"/>
-      <c r="AU254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr"/>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Inzersdorf Stadt</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>1230</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="inlineStr"/>
-      <c r="N255" t="inlineStr"/>
-      <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr"/>
-      <c r="Q255" t="inlineStr"/>
-      <c r="R255" t="inlineStr"/>
-      <c r="S255" t="b">
-        <v>0</v>
-      </c>
-      <c r="T255" t="inlineStr"/>
-      <c r="U255" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V255" t="inlineStr"/>
-      <c r="W255" t="inlineStr"/>
-      <c r="X255" t="inlineStr"/>
-      <c r="Y255" t="inlineStr"/>
-      <c r="Z255" t="inlineStr"/>
-      <c r="AA255" t="inlineStr"/>
-      <c r="AB255" t="inlineStr"/>
-      <c r="AC255" t="inlineStr"/>
-      <c r="AD255" t="inlineStr"/>
-      <c r="AE255" t="inlineStr"/>
-      <c r="AF255" t="inlineStr"/>
-      <c r="AG255" t="inlineStr"/>
-      <c r="AH255" t="inlineStr"/>
-      <c r="AI255" t="inlineStr"/>
-      <c r="AJ255" t="inlineStr"/>
-      <c r="AK255" t="inlineStr"/>
-      <c r="AL255" t="inlineStr"/>
-      <c r="AM255" t="inlineStr"/>
-      <c r="AN255" t="inlineStr"/>
-      <c r="AO255" t="inlineStr"/>
-      <c r="AP255" t="inlineStr"/>
-      <c r="AQ255" t="inlineStr"/>
-      <c r="AR255" t="inlineStr"/>
-      <c r="AS255" t="inlineStr"/>
-      <c r="AT255" t="inlineStr"/>
-      <c r="AU255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr"/>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Margarethen</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>1050</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>Grohsgasse</t>
-        </is>
-      </c>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
-      <c r="N256" t="inlineStr"/>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="b">
-        <v>0</v>
-      </c>
-      <c r="T256" t="inlineStr"/>
-      <c r="U256" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V256" t="inlineStr"/>
-      <c r="W256" t="inlineStr"/>
-      <c r="X256" t="inlineStr"/>
-      <c r="Y256" t="inlineStr"/>
-      <c r="Z256" t="inlineStr"/>
-      <c r="AA256" t="inlineStr"/>
-      <c r="AB256" t="inlineStr"/>
-      <c r="AC256" t="inlineStr"/>
-      <c r="AD256" t="inlineStr"/>
-      <c r="AE256" t="inlineStr"/>
-      <c r="AF256" t="inlineStr"/>
-      <c r="AG256" t="inlineStr"/>
-      <c r="AH256" t="inlineStr"/>
-      <c r="AI256" t="inlineStr"/>
-      <c r="AJ256" t="inlineStr"/>
-      <c r="AK256" t="inlineStr"/>
-      <c r="AL256" t="inlineStr"/>
-      <c r="AM256" t="inlineStr"/>
-      <c r="AN256" t="inlineStr"/>
-      <c r="AO256" t="inlineStr"/>
-      <c r="AP256" t="inlineStr"/>
-      <c r="AQ256" t="inlineStr"/>
-      <c r="AR256" t="inlineStr"/>
-      <c r="AS256" t="inlineStr"/>
-      <c r="AT256" t="inlineStr"/>
-      <c r="AU256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr"/>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Stammersdorf</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>1210</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
-      <c r="N257" t="inlineStr"/>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
-      <c r="S257" t="b">
-        <v>0</v>
-      </c>
-      <c r="T257" t="inlineStr"/>
-      <c r="U257" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V257" t="inlineStr"/>
-      <c r="W257" t="inlineStr"/>
-      <c r="X257" t="inlineStr"/>
-      <c r="Y257" t="inlineStr"/>
-      <c r="Z257" t="inlineStr"/>
-      <c r="AA257" t="inlineStr"/>
-      <c r="AB257" t="inlineStr"/>
-      <c r="AC257" t="inlineStr"/>
-      <c r="AD257" t="inlineStr"/>
-      <c r="AE257" t="inlineStr"/>
-      <c r="AF257" t="inlineStr"/>
-      <c r="AG257" t="inlineStr"/>
-      <c r="AH257" t="inlineStr"/>
-      <c r="AI257" t="inlineStr"/>
-      <c r="AJ257" t="inlineStr"/>
-      <c r="AK257" t="inlineStr"/>
-      <c r="AL257" t="inlineStr"/>
-      <c r="AM257" t="inlineStr"/>
-      <c r="AN257" t="inlineStr"/>
-      <c r="AO257" t="inlineStr"/>
-      <c r="AP257" t="inlineStr"/>
-      <c r="AQ257" t="inlineStr"/>
-      <c r="AR257" t="inlineStr"/>
-      <c r="AS257" t="inlineStr"/>
-      <c r="AT257" t="inlineStr"/>
-      <c r="AU257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr"/>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Kagran</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>1220</t>
-        </is>
-      </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr">
-        <is>
-          <t>Kaufvertrag</t>
-        </is>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="inlineStr"/>
-      <c r="N258" t="inlineStr"/>
-      <c r="O258" t="inlineStr"/>
-      <c r="P258" t="inlineStr"/>
-      <c r="Q258" t="inlineStr"/>
-      <c r="R258" t="inlineStr"/>
-      <c r="S258" t="b">
-        <v>0</v>
-      </c>
-      <c r="T258" t="inlineStr"/>
-      <c r="U258" t="inlineStr">
-        <is>
-          <t>in Arbeit</t>
-        </is>
-      </c>
-      <c r="V258" t="inlineStr"/>
-      <c r="W258" t="inlineStr"/>
-      <c r="X258" t="inlineStr"/>
-      <c r="Y258" t="inlineStr"/>
-      <c r="Z258" t="inlineStr"/>
-      <c r="AA258" t="inlineStr"/>
-      <c r="AB258" t="inlineStr"/>
-      <c r="AC258" t="inlineStr"/>
-      <c r="AD258" t="inlineStr"/>
-      <c r="AE258" t="inlineStr"/>
-      <c r="AF258" t="inlineStr"/>
-      <c r="AG258" t="inlineStr"/>
-      <c r="AH258" t="inlineStr"/>
-      <c r="AI258" t="inlineStr"/>
-      <c r="AJ258" t="inlineStr"/>
-      <c r="AK258" t="inlineStr"/>
-      <c r="AL258" t="inlineStr"/>
-      <c r="AM258" t="inlineStr"/>
-      <c r="AN258" t="inlineStr"/>
-      <c r="AO258" t="inlineStr"/>
-      <c r="AP258" t="inlineStr"/>
-      <c r="AQ258" t="inlineStr"/>
-      <c r="AR258" t="inlineStr"/>
-      <c r="AS258" t="inlineStr"/>
-      <c r="AT258" t="inlineStr"/>
-      <c r="AU258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr"/>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Hadersdorf</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>1140</t>
-        </is>
-      </c>
-      <c r="E259" t="inlineStr">
-        <is>
-          <t>Karl-Bekehrty-Straße</t>
-        </is>
-      </c>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr">
-        <is>
-          <t>Baurechtsvertrag</t>
-        </is>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="inlineStr"/>
-      <c r="N259" t="inlineStr"/>
-      <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr"/>
-      <c r="Q259" t="inlineStr"/>
-      <c r="R259" t="inlineStr"/>
-      <c r="S259" t="b">
-        <v>0</v>
-      </c>
-      <c r="T259" t="inlineStr"/>
-      <c r="U259" t="inlineStr">
-        <is>
-          <t>unbebaut</t>
-        </is>
-      </c>
-      <c r="V259" t="inlineStr"/>
-      <c r="W259" t="inlineStr"/>
-      <c r="X259" t="inlineStr"/>
-      <c r="Y259" t="inlineStr"/>
-      <c r="Z259" t="inlineStr"/>
-      <c r="AA259" t="inlineStr"/>
-      <c r="AB259" t="inlineStr"/>
-      <c r="AC259" t="inlineStr"/>
-      <c r="AD259" t="inlineStr"/>
-      <c r="AE259" t="n">
-        <v>27.77778</v>
-      </c>
-      <c r="AF259" t="inlineStr"/>
-      <c r="AG259" t="inlineStr"/>
-      <c r="AH259" t="inlineStr"/>
-      <c r="AI259" t="inlineStr"/>
-      <c r="AJ259" t="inlineStr"/>
-      <c r="AK259" t="inlineStr"/>
-      <c r="AL259" t="inlineStr"/>
-      <c r="AM259" t="inlineStr"/>
-      <c r="AN259" t="inlineStr"/>
-      <c r="AO259" t="inlineStr"/>
-      <c r="AP259" t="inlineStr"/>
-      <c r="AQ259" t="inlineStr"/>
-      <c r="AR259" t="inlineStr"/>
-      <c r="AS259" t="inlineStr"/>
-      <c r="AT259" t="inlineStr"/>
-      <c r="AU259" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
